--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -6102,28 +6102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4091.617565742491</v>
+        <v>4237.964773106628</v>
       </c>
       <c r="AB2" t="n">
-        <v>5598.33166287648</v>
+        <v>5798.570368375225</v>
       </c>
       <c r="AC2" t="n">
-        <v>5064.034746279174</v>
+        <v>5245.162950761901</v>
       </c>
       <c r="AD2" t="n">
-        <v>4091617.565742491</v>
+        <v>4237964.773106628</v>
       </c>
       <c r="AE2" t="n">
-        <v>5598331.662876479</v>
+        <v>5798570.368375225</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.404909905196807e-07</v>
+        <v>1.185076022244558e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.72721354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5064034.746279174</v>
+        <v>5245162.950761901</v>
       </c>
     </row>
     <row r="3">
@@ -6208,28 +6208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1942.817774121507</v>
+        <v>2028.187067925805</v>
       </c>
       <c r="AB3" t="n">
-        <v>2658.248989624055</v>
+        <v>2775.055023634533</v>
       </c>
       <c r="AC3" t="n">
-        <v>2404.549436930225</v>
+        <v>2510.20766699304</v>
       </c>
       <c r="AD3" t="n">
-        <v>1942817.774121507</v>
+        <v>2028187.067925805</v>
       </c>
       <c r="AE3" t="n">
-        <v>2658248.989624056</v>
+        <v>2775055.023634532</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.01208780426142e-06</v>
+        <v>1.872627417074492e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.0146484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2404549.436930225</v>
+        <v>2510207.66699304</v>
       </c>
     </row>
     <row r="4">
@@ -6314,28 +6314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1578.354211624875</v>
+        <v>1651.527904815495</v>
       </c>
       <c r="AB4" t="n">
-        <v>2159.573864418585</v>
+        <v>2259.693339637501</v>
       </c>
       <c r="AC4" t="n">
-        <v>1953.46716577943</v>
+        <v>2044.031378802018</v>
       </c>
       <c r="AD4" t="n">
-        <v>1578354.211624875</v>
+        <v>1651527.904815495</v>
       </c>
       <c r="AE4" t="n">
-        <v>2159573.864418585</v>
+        <v>2259693.339637501</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.15409754137227e-06</v>
+        <v>2.13538261092784e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.16731770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1953467.16577943</v>
+        <v>2044031.378802018</v>
       </c>
     </row>
     <row r="5">
@@ -6420,28 +6420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1425.049526755802</v>
+        <v>1498.13787909185</v>
       </c>
       <c r="AB5" t="n">
-        <v>1949.815631255354</v>
+        <v>2049.818339352073</v>
       </c>
       <c r="AC5" t="n">
-        <v>1763.727963991769</v>
+        <v>1854.186553982418</v>
       </c>
       <c r="AD5" t="n">
-        <v>1425049.526755802</v>
+        <v>1498137.87909185</v>
       </c>
       <c r="AE5" t="n">
-        <v>1949815.631255354</v>
+        <v>2049818.339352073</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.229070466355842e-06</v>
+        <v>2.274102151141015e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.36328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1763727.963991769</v>
+        <v>1854186.553982418</v>
       </c>
     </row>
     <row r="6">
@@ -6526,28 +6526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1332.296289812058</v>
+        <v>1417.494812398662</v>
       </c>
       <c r="AB6" t="n">
-        <v>1822.906560484909</v>
+        <v>1939.478937781442</v>
       </c>
       <c r="AC6" t="n">
-        <v>1648.930916817655</v>
+        <v>1754.377790035366</v>
       </c>
       <c r="AD6" t="n">
-        <v>1332296.289812058</v>
+        <v>1417494.812398662</v>
       </c>
       <c r="AE6" t="n">
-        <v>1822906.560484909</v>
+        <v>1939478.937781441</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.276593777459999e-06</v>
+        <v>2.36203271897228e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.904296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1648930.916817655</v>
+        <v>1754377.790035366</v>
       </c>
     </row>
     <row r="7">
@@ -6632,28 +6632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1278.056104845463</v>
+        <v>1351.229708527533</v>
       </c>
       <c r="AB7" t="n">
-        <v>1748.692746505537</v>
+        <v>1848.812099254903</v>
       </c>
       <c r="AC7" t="n">
-        <v>1581.799965084732</v>
+        <v>1672.364067326093</v>
       </c>
       <c r="AD7" t="n">
-        <v>1278056.104845463</v>
+        <v>1351229.708527533</v>
       </c>
       <c r="AE7" t="n">
-        <v>1748692.746505537</v>
+        <v>1848812.099254903</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.309178523187604e-06</v>
+        <v>2.422323029724956e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.60807291666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1581799.965084732</v>
+        <v>1672364.067326093</v>
       </c>
     </row>
     <row r="8">
@@ -6738,28 +6738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1239.452485784699</v>
+        <v>1312.455497266176</v>
       </c>
       <c r="AB8" t="n">
-        <v>1695.873571835122</v>
+        <v>1795.759512809642</v>
       </c>
       <c r="AC8" t="n">
-        <v>1534.021778312684</v>
+        <v>1624.374745271395</v>
       </c>
       <c r="AD8" t="n">
-        <v>1239452.485784699</v>
+        <v>1312455.497266176</v>
       </c>
       <c r="AE8" t="n">
-        <v>1695873.571835122</v>
+        <v>1795759.512809642</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.332986861756484e-06</v>
+        <v>2.466374689443959e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.39973958333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1534021.778312684</v>
+        <v>1624374.745271395</v>
       </c>
     </row>
     <row r="9">
@@ -6844,28 +6844,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1208.729177074757</v>
+        <v>1281.732188556234</v>
       </c>
       <c r="AB9" t="n">
-        <v>1653.83658544146</v>
+        <v>1753.722526415979</v>
       </c>
       <c r="AC9" t="n">
-        <v>1495.996742901152</v>
+        <v>1586.349709859863</v>
       </c>
       <c r="AD9" t="n">
-        <v>1208729.177074757</v>
+        <v>1281732.188556234</v>
       </c>
       <c r="AE9" t="n">
-        <v>1653836.58544146</v>
+        <v>1753722.526415979</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.351473336409968e-06</v>
+        <v>2.500579507578714e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.2451171875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1495996.742901152</v>
+        <v>1586349.709859862</v>
       </c>
     </row>
     <row r="10">
@@ -6950,28 +6950,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1190.92392882373</v>
+        <v>1251.902021400671</v>
       </c>
       <c r="AB10" t="n">
-        <v>1629.47465927229</v>
+        <v>1712.907575699644</v>
       </c>
       <c r="AC10" t="n">
-        <v>1473.95988477339</v>
+        <v>1549.430080755751</v>
       </c>
       <c r="AD10" t="n">
-        <v>1190923.92882373</v>
+        <v>1251902.021400671</v>
       </c>
       <c r="AE10" t="n">
-        <v>1629474.65927229</v>
+        <v>1712907.575699644</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.361090037871123e-06</v>
+        <v>2.518372923073057e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.16536458333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1473959.88477339</v>
+        <v>1549430.080755751</v>
       </c>
     </row>
     <row r="11">
@@ -7056,28 +7056,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1168.681051064727</v>
+        <v>1229.659143641669</v>
       </c>
       <c r="AB11" t="n">
-        <v>1599.040972635912</v>
+        <v>1682.473889063266</v>
       </c>
       <c r="AC11" t="n">
-        <v>1446.43074647564</v>
+        <v>1521.900942458002</v>
       </c>
       <c r="AD11" t="n">
-        <v>1168681.051064727</v>
+        <v>1229659.143641669</v>
       </c>
       <c r="AE11" t="n">
-        <v>1599040.972635912</v>
+        <v>1682473.889063266</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.373320988273175e-06</v>
+        <v>2.541003383556153e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.06608072916667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1446430.74647564</v>
+        <v>1521900.942458002</v>
       </c>
     </row>
     <row r="12">
@@ -7162,28 +7162,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1137.187608887706</v>
+        <v>1210.275871715204</v>
       </c>
       <c r="AB12" t="n">
-        <v>1555.950255656702</v>
+        <v>1655.952841283871</v>
       </c>
       <c r="AC12" t="n">
-        <v>1407.452547046725</v>
+        <v>1497.911026256148</v>
       </c>
       <c r="AD12" t="n">
-        <v>1137187.608887706</v>
+        <v>1210275.871715204</v>
       </c>
       <c r="AE12" t="n">
-        <v>1555950.255656702</v>
+        <v>1655952.841283871</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.383124421801538e-06</v>
+        <v>2.559142302263978e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.986328125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1407452.547046725</v>
+        <v>1497911.026256148</v>
       </c>
     </row>
     <row r="13">
@@ -7268,28 +7268,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1120.391882884077</v>
+        <v>1193.480145711574</v>
       </c>
       <c r="AB13" t="n">
-        <v>1532.9696023634</v>
+        <v>1632.972187990569</v>
       </c>
       <c r="AC13" t="n">
-        <v>1386.665135050186</v>
+        <v>1477.123614259609</v>
       </c>
       <c r="AD13" t="n">
-        <v>1120391.882884077</v>
+        <v>1193480.145711574</v>
       </c>
       <c r="AE13" t="n">
-        <v>1532969.6023634</v>
+        <v>1632972.187990569</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.391153900691435e-06</v>
+        <v>2.57399894044372e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.9228515625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1386665.135050186</v>
+        <v>1477123.614259609</v>
       </c>
     </row>
     <row r="14">
@@ -7374,28 +7374,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1103.358436938039</v>
+        <v>1176.446699765536</v>
       </c>
       <c r="AB14" t="n">
-        <v>1509.663690157431</v>
+        <v>1609.6662757846</v>
       </c>
       <c r="AC14" t="n">
-        <v>1365.583506395102</v>
+        <v>1456.041985604524</v>
       </c>
       <c r="AD14" t="n">
-        <v>1103358.436938039</v>
+        <v>1176446.699765536</v>
       </c>
       <c r="AE14" t="n">
-        <v>1509663.690157431</v>
+        <v>1609666.2757846</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.39778288907728e-06</v>
+        <v>2.586264304522344e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.87076822916667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1365583.506395102</v>
+        <v>1456041.985604524</v>
       </c>
     </row>
     <row r="15">
@@ -7480,28 +7480,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1088.222355068968</v>
+        <v>1161.310617896466</v>
       </c>
       <c r="AB15" t="n">
-        <v>1488.953835187364</v>
+        <v>1588.956420814533</v>
       </c>
       <c r="AC15" t="n">
-        <v>1346.850170916914</v>
+        <v>1437.308650126337</v>
       </c>
       <c r="AD15" t="n">
-        <v>1088222.355068968</v>
+        <v>1161310.617896466</v>
       </c>
       <c r="AE15" t="n">
-        <v>1488953.835187364</v>
+        <v>1588956.420814533</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.404411877463125e-06</v>
+        <v>2.598529668600968e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.8203125</v>
       </c>
       <c r="AH15" t="n">
-        <v>1346850.170916914</v>
+        <v>1437308.650126337</v>
       </c>
     </row>
     <row r="16">
@@ -7586,28 +7586,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1073.936448884647</v>
+        <v>1147.024711712145</v>
       </c>
       <c r="AB16" t="n">
-        <v>1469.407228096277</v>
+        <v>1569.409813723446</v>
       </c>
       <c r="AC16" t="n">
-        <v>1329.169064572765</v>
+        <v>1419.627543782188</v>
       </c>
       <c r="AD16" t="n">
-        <v>1073936.448884648</v>
+        <v>1147024.711712145</v>
       </c>
       <c r="AE16" t="n">
-        <v>1469407.228096277</v>
+        <v>1569409.813723446</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.409266911210505e-06</v>
+        <v>2.607512752151511e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.78287760416667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1329169.064572765</v>
+        <v>1419627.543782188</v>
       </c>
     </row>
     <row r="17">
@@ -7692,28 +7692,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1062.308936326398</v>
+        <v>1135.397199153896</v>
       </c>
       <c r="AB17" t="n">
-        <v>1453.49795244443</v>
+        <v>1553.500538071599</v>
       </c>
       <c r="AC17" t="n">
-        <v>1314.778147860321</v>
+        <v>1405.236627069744</v>
       </c>
       <c r="AD17" t="n">
-        <v>1062308.936326399</v>
+        <v>1135397.199153896</v>
       </c>
       <c r="AE17" t="n">
-        <v>1453497.95244443</v>
+        <v>1553500.538071599</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.413188284621849e-06</v>
+        <v>2.61476831963464e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.75358072916667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1314778.147860321</v>
+        <v>1405236.627069744</v>
       </c>
     </row>
     <row r="18">
@@ -7798,28 +7798,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1050.107820286685</v>
+        <v>1123.196083114183</v>
       </c>
       <c r="AB18" t="n">
-        <v>1436.803847203644</v>
+        <v>1536.806432830814</v>
       </c>
       <c r="AC18" t="n">
-        <v>1299.677304593393</v>
+        <v>1390.135783802815</v>
       </c>
       <c r="AD18" t="n">
-        <v>1050107.820286685</v>
+        <v>1123196.083114183</v>
       </c>
       <c r="AE18" t="n">
-        <v>1436803.847203644</v>
+        <v>1536806.432830814</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.416642827865177e-06</v>
+        <v>2.621160129084064e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.7275390625</v>
       </c>
       <c r="AH18" t="n">
-        <v>1299677.304593393</v>
+        <v>1390135.783802815</v>
       </c>
     </row>
     <row r="19">
@@ -7904,28 +7904,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1039.202702281973</v>
+        <v>1112.29096510947</v>
       </c>
       <c r="AB19" t="n">
-        <v>1421.882983649745</v>
+        <v>1521.885569276914</v>
       </c>
       <c r="AC19" t="n">
-        <v>1286.180467315514</v>
+        <v>1376.638946524937</v>
       </c>
       <c r="AD19" t="n">
-        <v>1039202.702281973</v>
+        <v>1112290.96510947</v>
       </c>
       <c r="AE19" t="n">
-        <v>1421882.983649745</v>
+        <v>1521885.569276914</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.420097371108505e-06</v>
+        <v>2.627551938533488e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.70149739583333</v>
       </c>
       <c r="AH19" t="n">
-        <v>1286180.467315514</v>
+        <v>1376638.946524936</v>
       </c>
     </row>
     <row r="20">
@@ -8010,28 +8010,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1025.543308432386</v>
+        <v>1098.631571259884</v>
       </c>
       <c r="AB20" t="n">
-        <v>1403.193598374814</v>
+        <v>1503.196184001983</v>
       </c>
       <c r="AC20" t="n">
-        <v>1269.274770740505</v>
+        <v>1359.733249949928</v>
       </c>
       <c r="AD20" t="n">
-        <v>1025543.308432386</v>
+        <v>1098631.571259884</v>
       </c>
       <c r="AE20" t="n">
-        <v>1403193.598374814</v>
+        <v>1503196.184001983</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.423832012452643e-06</v>
+        <v>2.634462002803136e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.67220052083333</v>
       </c>
       <c r="AH20" t="n">
-        <v>1269274.770740505</v>
+        <v>1359733.249949928</v>
       </c>
     </row>
     <row r="21">
@@ -8116,28 +8116,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1011.566195837379</v>
+        <v>1084.654458664876</v>
       </c>
       <c r="AB21" t="n">
-        <v>1384.069496295636</v>
+        <v>1484.072081922806</v>
       </c>
       <c r="AC21" t="n">
-        <v>1251.975846122919</v>
+        <v>1342.434325332341</v>
       </c>
       <c r="AD21" t="n">
-        <v>1011566.195837379</v>
+        <v>1084654.458664876</v>
       </c>
       <c r="AE21" t="n">
-        <v>1384069.496295636</v>
+        <v>1484072.081922806</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.426913091561557e-06</v>
+        <v>2.640162805825595e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.6494140625</v>
       </c>
       <c r="AH21" t="n">
-        <v>1251975.846122919</v>
+        <v>1342434.325332341</v>
       </c>
     </row>
     <row r="22">
@@ -8222,28 +8222,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1003.616173561411</v>
+        <v>1076.704436388909</v>
       </c>
       <c r="AB22" t="n">
-        <v>1373.191925087428</v>
+        <v>1473.194510714598</v>
       </c>
       <c r="AC22" t="n">
-        <v>1242.136415044055</v>
+        <v>1332.594894253477</v>
       </c>
       <c r="AD22" t="n">
-        <v>1003616.173561411</v>
+        <v>1076704.436388909</v>
       </c>
       <c r="AE22" t="n">
-        <v>1373191.925087428</v>
+        <v>1473194.510714598</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.429060510334436e-06</v>
+        <v>2.644136092780642e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.63313802083333</v>
       </c>
       <c r="AH22" t="n">
-        <v>1242136.415044054</v>
+        <v>1332594.894253477</v>
       </c>
     </row>
     <row r="23">
@@ -8328,28 +8328,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1007.878041698703</v>
+        <v>1080.966304526201</v>
       </c>
       <c r="AB23" t="n">
-        <v>1379.023201093223</v>
+        <v>1479.025786720393</v>
       </c>
       <c r="AC23" t="n">
-        <v>1247.411162252104</v>
+        <v>1337.869641461526</v>
       </c>
       <c r="AD23" t="n">
-        <v>1007878.041698703</v>
+        <v>1080966.304526201</v>
       </c>
       <c r="AE23" t="n">
-        <v>1379023.201093223</v>
+        <v>1479025.786720393</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.428313582065609e-06</v>
+        <v>2.642754079926713e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10.6396484375</v>
       </c>
       <c r="AH23" t="n">
-        <v>1247411.162252104</v>
+        <v>1337869.641461527</v>
       </c>
     </row>
     <row r="24">
@@ -8434,28 +8434,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1010.814790400335</v>
+        <v>1083.903053227832</v>
       </c>
       <c r="AB24" t="n">
-        <v>1383.041390227005</v>
+        <v>1483.043975854174</v>
       </c>
       <c r="AC24" t="n">
-        <v>1251.045861054521</v>
+        <v>1341.504340263944</v>
       </c>
       <c r="AD24" t="n">
-        <v>1010814.790400335</v>
+        <v>1083903.053227832</v>
       </c>
       <c r="AE24" t="n">
-        <v>1383041.390227004</v>
+        <v>1483043.975854174</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.427660019830384e-06</v>
+        <v>2.641544818679524e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>10.64453125</v>
       </c>
       <c r="AH24" t="n">
-        <v>1251045.861054521</v>
+        <v>1341504.340263944</v>
       </c>
     </row>
     <row r="25">
@@ -8540,28 +8540,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1013.947233515234</v>
+        <v>1087.035496342732</v>
       </c>
       <c r="AB25" t="n">
-        <v>1387.327337090447</v>
+        <v>1487.329922717616</v>
       </c>
       <c r="AC25" t="n">
-        <v>1254.922763164681</v>
+        <v>1345.381242374103</v>
       </c>
       <c r="AD25" t="n">
-        <v>1013947.233515234</v>
+        <v>1087035.496342732</v>
       </c>
       <c r="AE25" t="n">
-        <v>1387327.337090447</v>
+        <v>1487329.922717616</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.428220216032005e-06</v>
+        <v>2.642581328319972e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>10.6396484375</v>
       </c>
       <c r="AH25" t="n">
-        <v>1254922.763164681</v>
+        <v>1345381.242374103</v>
       </c>
     </row>
   </sheetData>
@@ -8837,28 +8837,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2822.384182395875</v>
+        <v>2951.614334146621</v>
       </c>
       <c r="AB2" t="n">
-        <v>3861.710553156569</v>
+        <v>4038.528948013874</v>
       </c>
       <c r="AC2" t="n">
-        <v>3493.154317907963</v>
+        <v>3653.097413326255</v>
       </c>
       <c r="AD2" t="n">
-        <v>2822384.182395875</v>
+        <v>2951614.334146621</v>
       </c>
       <c r="AE2" t="n">
-        <v>3861710.55315657</v>
+        <v>4038528.948013874</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.864020354395059e-07</v>
+        <v>1.499003646860112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.990234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>3493154.317907963</v>
+        <v>3653097.413326255</v>
       </c>
     </row>
     <row r="3">
@@ -8943,28 +8943,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1550.582104582843</v>
+        <v>1644.521119935438</v>
       </c>
       <c r="AB3" t="n">
-        <v>2121.574842344787</v>
+        <v>2250.106347447074</v>
       </c>
       <c r="AC3" t="n">
-        <v>1919.094717040392</v>
+        <v>2035.359355690818</v>
       </c>
       <c r="AD3" t="n">
-        <v>1550582.104582843</v>
+        <v>1644521.119935438</v>
       </c>
       <c r="AE3" t="n">
-        <v>2121574.842344787</v>
+        <v>2250106.347447074</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.130634024423343e-06</v>
+        <v>2.155162944011849e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.90299479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1919094.717040392</v>
+        <v>2035359.355690818</v>
       </c>
     </row>
     <row r="4">
@@ -9049,28 +9049,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1308.377560996046</v>
+        <v>1379.045174646921</v>
       </c>
       <c r="AB4" t="n">
-        <v>1790.179900499</v>
+        <v>1886.870447131209</v>
       </c>
       <c r="AC4" t="n">
-        <v>1619.327643328645</v>
+        <v>1706.790179896311</v>
       </c>
       <c r="AD4" t="n">
-        <v>1308377.560996046</v>
+        <v>1379045.174646921</v>
       </c>
       <c r="AE4" t="n">
-        <v>1790179.900499</v>
+        <v>1886870.447131209</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.256678565844192e-06</v>
+        <v>2.395423292716399e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.509765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1619327.643328645</v>
+        <v>1706790.179896311</v>
       </c>
     </row>
     <row r="5">
@@ -9155,28 +9155,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1194.179789782038</v>
+        <v>1276.355093001915</v>
       </c>
       <c r="AB5" t="n">
-        <v>1633.929471873895</v>
+        <v>1746.365347057847</v>
       </c>
       <c r="AC5" t="n">
-        <v>1477.989536312667</v>
+        <v>1579.694689373805</v>
       </c>
       <c r="AD5" t="n">
-        <v>1194179.789782038</v>
+        <v>1276355.093001915</v>
       </c>
       <c r="AE5" t="n">
-        <v>1633929.471873895</v>
+        <v>1746365.347057847</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.323033048569191e-06</v>
+        <v>2.521905177436726e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.88313802083333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1477989.536312667</v>
+        <v>1579694.689373804</v>
       </c>
     </row>
     <row r="6">
@@ -9261,28 +9261,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1131.954804743824</v>
+        <v>1202.537077540127</v>
       </c>
       <c r="AB6" t="n">
-        <v>1548.790502172015</v>
+        <v>1645.364281682027</v>
       </c>
       <c r="AC6" t="n">
-        <v>1400.97611038584</v>
+        <v>1488.333023921567</v>
       </c>
       <c r="AD6" t="n">
-        <v>1131954.804743824</v>
+        <v>1202537.077540127</v>
       </c>
       <c r="AE6" t="n">
-        <v>1548790.502172015</v>
+        <v>1645364.281682028</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.365241067420464e-06</v>
+        <v>2.602360175432042e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.51529947916667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1400976.11038584</v>
+        <v>1488333.023921567</v>
       </c>
     </row>
     <row r="7">
@@ -9367,28 +9367,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1090.558167742041</v>
+        <v>1160.969848337753</v>
       </c>
       <c r="AB7" t="n">
-        <v>1492.149797135445</v>
+        <v>1588.49016487061</v>
       </c>
       <c r="AC7" t="n">
-        <v>1349.741114742232</v>
+        <v>1436.886892995308</v>
       </c>
       <c r="AD7" t="n">
-        <v>1090558.167742041</v>
+        <v>1160969.848337753</v>
       </c>
       <c r="AE7" t="n">
-        <v>1492149.797135445</v>
+        <v>1588490.16487061</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.392768036236511e-06</v>
+        <v>2.654830826298553e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.28743489583333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1349741.114742232</v>
+        <v>1436886.892995308</v>
       </c>
     </row>
     <row r="8">
@@ -9473,28 +9473,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1056.111949721271</v>
+        <v>1114.930599893408</v>
       </c>
       <c r="AB8" t="n">
-        <v>1445.01896197954</v>
+        <v>1525.497234040765</v>
       </c>
       <c r="AC8" t="n">
-        <v>1307.108380345063</v>
+        <v>1379.905919072729</v>
       </c>
       <c r="AD8" t="n">
-        <v>1056111.949721271</v>
+        <v>1114930.599893408</v>
       </c>
       <c r="AE8" t="n">
-        <v>1445018.96197954</v>
+        <v>1525497.234040765</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.414499853722865e-06</v>
+        <v>2.696255024351062e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.11328125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1307108.380345063</v>
+        <v>1379905.919072729</v>
       </c>
     </row>
     <row r="9">
@@ -9579,28 +9579,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1036.639940135319</v>
+        <v>1095.458590307456</v>
       </c>
       <c r="AB9" t="n">
-        <v>1418.376499419606</v>
+        <v>1498.854771480831</v>
       </c>
       <c r="AC9" t="n">
-        <v>1283.008637018918</v>
+        <v>1355.806175746584</v>
       </c>
       <c r="AD9" t="n">
-        <v>1036639.940135318</v>
+        <v>1095458.590307456</v>
       </c>
       <c r="AE9" t="n">
-        <v>1418376.499419606</v>
+        <v>1498854.771480831</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.424834540260819e-06</v>
+        <v>2.715954531869366e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.03352864583333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1283008.637018918</v>
+        <v>1355806.175746584</v>
       </c>
     </row>
     <row r="10">
@@ -9685,28 +9685,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>999.143405473483</v>
+        <v>1069.640337415215</v>
       </c>
       <c r="AB10" t="n">
-        <v>1367.072086464923</v>
+        <v>1463.529098852737</v>
       </c>
       <c r="AC10" t="n">
-        <v>1236.600645230434</v>
+        <v>1323.851935734222</v>
       </c>
       <c r="AD10" t="n">
-        <v>999143.405473483</v>
+        <v>1069640.337415215</v>
       </c>
       <c r="AE10" t="n">
-        <v>1367072.086464923</v>
+        <v>1463529.098852737</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.439805347862529e-06</v>
+        <v>2.744491201638872e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.91796875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1236600.645230434</v>
+        <v>1323851.935734222</v>
       </c>
     </row>
     <row r="11">
@@ -9791,28 +9791,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>978.2815768748509</v>
+        <v>1048.778508816583</v>
       </c>
       <c r="AB11" t="n">
-        <v>1338.528012217352</v>
+        <v>1434.985024605167</v>
       </c>
       <c r="AC11" t="n">
-        <v>1210.780777367192</v>
+        <v>1298.03206787098</v>
       </c>
       <c r="AD11" t="n">
-        <v>978281.5768748509</v>
+        <v>1048778.508816583</v>
       </c>
       <c r="AE11" t="n">
-        <v>1338528.012217352</v>
+        <v>1434985.024605167</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.448691246568061e-06</v>
+        <v>2.761429095953675e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.85123697916667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1210780.777367192</v>
+        <v>1298032.06787098</v>
       </c>
     </row>
     <row r="12">
@@ -9897,28 +9897,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>956.6152504643138</v>
+        <v>1027.112182406046</v>
       </c>
       <c r="AB12" t="n">
-        <v>1308.883188571595</v>
+        <v>1405.340200959409</v>
       </c>
       <c r="AC12" t="n">
-        <v>1183.965214083414</v>
+        <v>1271.216504587202</v>
       </c>
       <c r="AD12" t="n">
-        <v>956615.2504643138</v>
+        <v>1027112.182406045</v>
       </c>
       <c r="AE12" t="n">
-        <v>1308883.188571595</v>
+        <v>1405340.200959409</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.458253246262056e-06</v>
+        <v>2.779655743096779e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.77962239583333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1183965.214083414</v>
+        <v>1271216.504587202</v>
       </c>
     </row>
     <row r="13">
@@ -10003,28 +10003,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>938.7032278172795</v>
+        <v>1009.200159759011</v>
       </c>
       <c r="AB13" t="n">
-        <v>1284.375168963255</v>
+        <v>1380.832181351069</v>
       </c>
       <c r="AC13" t="n">
-        <v>1161.796205469272</v>
+        <v>1249.047495973061</v>
       </c>
       <c r="AD13" t="n">
-        <v>938703.2278172795</v>
+        <v>1009200.159759011</v>
       </c>
       <c r="AE13" t="n">
-        <v>1284375.168963254</v>
+        <v>1380832.181351069</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.464724498580215e-06</v>
+        <v>2.791990948739081e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.732421875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1161796.205469272</v>
+        <v>1249047.495973061</v>
       </c>
     </row>
     <row r="14">
@@ -10109,28 +10109,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>916.4322585550764</v>
+        <v>986.9291904968081</v>
       </c>
       <c r="AB14" t="n">
-        <v>1253.903046292887</v>
+        <v>1350.360058680702</v>
       </c>
       <c r="AC14" t="n">
-        <v>1134.232299418672</v>
+        <v>1221.483589922461</v>
       </c>
       <c r="AD14" t="n">
-        <v>916432.2585550763</v>
+        <v>986929.1904968082</v>
       </c>
       <c r="AE14" t="n">
-        <v>1253903.046292887</v>
+        <v>1350360.058680702</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.474962599262674e-06</v>
+        <v>2.811506348710486e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.65755208333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1134232.299418672</v>
+        <v>1221483.589922461</v>
       </c>
     </row>
     <row r="15">
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>905.0651595232667</v>
+        <v>975.5620914649984</v>
       </c>
       <c r="AB15" t="n">
-        <v>1238.350079916549</v>
+        <v>1334.807092304364</v>
       </c>
       <c r="AC15" t="n">
-        <v>1120.163686324566</v>
+        <v>1207.414976828354</v>
       </c>
       <c r="AD15" t="n">
-        <v>905065.1595232667</v>
+        <v>975562.0914649984</v>
       </c>
       <c r="AE15" t="n">
-        <v>1238350.079916549</v>
+        <v>1334807.092304364</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.474769427551685e-06</v>
+        <v>2.811138133616686e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.6591796875</v>
       </c>
       <c r="AH15" t="n">
-        <v>1120163.686324566</v>
+        <v>1207414.976828354</v>
       </c>
     </row>
     <row r="16">
@@ -10321,28 +10321,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>900.2350700321035</v>
+        <v>970.7320019738353</v>
       </c>
       <c r="AB16" t="n">
-        <v>1231.74133838623</v>
+        <v>1328.198350774045</v>
       </c>
       <c r="AC16" t="n">
-        <v>1114.185673810474</v>
+        <v>1201.436964314262</v>
       </c>
       <c r="AD16" t="n">
-        <v>900235.0700321036</v>
+        <v>970732.0019738353</v>
       </c>
       <c r="AE16" t="n">
-        <v>1231741.33838623</v>
+        <v>1328198.350774045</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.476121629528613e-06</v>
+        <v>2.813715639273286e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.6494140625</v>
       </c>
       <c r="AH16" t="n">
-        <v>1114185.673810474</v>
+        <v>1201436.964314262</v>
       </c>
     </row>
     <row r="17">
@@ -10427,28 +10427,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>898.8644160703136</v>
+        <v>969.3613480120453</v>
       </c>
       <c r="AB17" t="n">
-        <v>1229.865949166724</v>
+        <v>1326.322961554539</v>
       </c>
       <c r="AC17" t="n">
-        <v>1112.489269105952</v>
+        <v>1199.740559609741</v>
       </c>
       <c r="AD17" t="n">
-        <v>898864.4160703137</v>
+        <v>969361.3480120453</v>
       </c>
       <c r="AE17" t="n">
-        <v>1229865.949166724</v>
+        <v>1326322.961554538</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.477377245650047e-06</v>
+        <v>2.816109037382987e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.64127604166667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1112489.269105952</v>
+        <v>1199740.559609741</v>
       </c>
     </row>
   </sheetData>
@@ -10724,28 +10724,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1128.238369846474</v>
+        <v>1201.397215938789</v>
       </c>
       <c r="AB2" t="n">
-        <v>1543.705511987925</v>
+        <v>1643.804672751933</v>
       </c>
       <c r="AC2" t="n">
-        <v>1396.376424528091</v>
+        <v>1486.922261878836</v>
       </c>
       <c r="AD2" t="n">
-        <v>1128238.369846474</v>
+        <v>1201397.21593879</v>
       </c>
       <c r="AE2" t="n">
-        <v>1543705.511987925</v>
+        <v>1643804.672751933</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.248150895102674e-06</v>
+        <v>2.658234761817037e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.05436197916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1396376.424528091</v>
+        <v>1486922.261878836</v>
       </c>
     </row>
     <row r="3">
@@ -10830,28 +10830,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>814.4873917535795</v>
+        <v>877.2680467007249</v>
       </c>
       <c r="AB3" t="n">
-        <v>1114.417582044973</v>
+        <v>1200.316843830679</v>
       </c>
       <c r="AC3" t="n">
-        <v>1008.0591321095</v>
+        <v>1085.760288910749</v>
       </c>
       <c r="AD3" t="n">
-        <v>814487.3917535795</v>
+        <v>877268.0467007249</v>
       </c>
       <c r="AE3" t="n">
-        <v>1114417.582044973</v>
+        <v>1200316.843830679</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.487305271774191e-06</v>
+        <v>3.16757099672525e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.79361979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1008059.1321095</v>
+        <v>1085760.288910749</v>
       </c>
     </row>
     <row r="4">
@@ -10936,28 +10936,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>727.514042124633</v>
+        <v>779.8313440891383</v>
       </c>
       <c r="AB4" t="n">
-        <v>995.4168080892645</v>
+        <v>1066.999648713567</v>
       </c>
       <c r="AC4" t="n">
-        <v>900.4156250014889</v>
+        <v>965.1666997837564</v>
       </c>
       <c r="AD4" t="n">
-        <v>727514.042124633</v>
+        <v>779831.3440891383</v>
       </c>
       <c r="AE4" t="n">
-        <v>995416.8080892644</v>
+        <v>1066999.648713568</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.56975371618776e-06</v>
+        <v>3.343164606326323e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.17513020833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>900415.625001489</v>
+        <v>965166.6997837564</v>
       </c>
     </row>
     <row r="5">
@@ -11042,28 +11042,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>661.530076463634</v>
+        <v>724.2253905562076</v>
       </c>
       <c r="AB5" t="n">
-        <v>905.1346352647695</v>
+        <v>990.9171299282774</v>
       </c>
       <c r="AC5" t="n">
-        <v>818.7498560395381</v>
+        <v>896.3453898088486</v>
       </c>
       <c r="AD5" t="n">
-        <v>661530.076463634</v>
+        <v>724225.3905562076</v>
       </c>
       <c r="AE5" t="n">
-        <v>905134.6352647694</v>
+        <v>990917.1299282775</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.614265098596654e-06</v>
+        <v>3.437962202097883e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.86588541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>818749.8560395382</v>
+        <v>896345.3898088486</v>
       </c>
     </row>
     <row r="6">
@@ -11148,28 +11148,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>655.2091860926582</v>
+        <v>717.9045001852319</v>
       </c>
       <c r="AB6" t="n">
-        <v>896.4861142011978</v>
+        <v>982.2686088647059</v>
       </c>
       <c r="AC6" t="n">
-        <v>810.9267376879984</v>
+        <v>888.5222714573088</v>
       </c>
       <c r="AD6" t="n">
-        <v>655209.1860926582</v>
+        <v>717904.5001852319</v>
       </c>
       <c r="AE6" t="n">
-        <v>896486.1142011977</v>
+        <v>982268.6088647059</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.618252801136919e-06</v>
+        <v>3.44645496491519e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.83984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>810926.7376879985</v>
+        <v>888522.2714573088</v>
       </c>
     </row>
   </sheetData>
@@ -11445,28 +11445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1582.508624668645</v>
+        <v>1670.282993038248</v>
       </c>
       <c r="AB2" t="n">
-        <v>2165.25811562484</v>
+        <v>2285.354878759968</v>
       </c>
       <c r="AC2" t="n">
-        <v>1958.608920028457</v>
+        <v>2067.243816646833</v>
       </c>
       <c r="AD2" t="n">
-        <v>1582508.624668645</v>
+        <v>1670282.993038248</v>
       </c>
       <c r="AE2" t="n">
-        <v>2165258.11562484</v>
+        <v>2285354.878759968</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.063225304212003e-06</v>
+        <v>2.158714958202142e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.78287760416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1958608.920028457</v>
+        <v>2067243.816646833</v>
       </c>
     </row>
     <row r="3">
@@ -11551,28 +11551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1059.227523053044</v>
+        <v>1124.973047984225</v>
       </c>
       <c r="AB3" t="n">
-        <v>1449.281826861467</v>
+        <v>1539.237754560163</v>
       </c>
       <c r="AC3" t="n">
-        <v>1310.964403385627</v>
+        <v>1392.335063598697</v>
       </c>
       <c r="AD3" t="n">
-        <v>1059227.523053044</v>
+        <v>1124973.047984225</v>
       </c>
       <c r="AE3" t="n">
-        <v>1449281.826861467</v>
+        <v>1539237.754560163</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.346662693785199e-06</v>
+        <v>2.734190852315572e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.46256510416667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1310964.403385627</v>
+        <v>1392335.063598697</v>
       </c>
     </row>
     <row r="4">
@@ -11657,28 +11657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>926.5431203345897</v>
+        <v>992.3738966117918</v>
       </c>
       <c r="AB4" t="n">
-        <v>1267.737173439358</v>
+        <v>1357.809745790704</v>
       </c>
       <c r="AC4" t="n">
-        <v>1146.746116886603</v>
+        <v>1228.222289350385</v>
       </c>
       <c r="AD4" t="n">
-        <v>926543.1203345897</v>
+        <v>992373.8966117918</v>
       </c>
       <c r="AE4" t="n">
-        <v>1267737.173439358</v>
+        <v>1357809.745790704</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.445850314290624e-06</v>
+        <v>2.935576014242498e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.6064453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1146746.116886603</v>
+        <v>1228222.289350385</v>
       </c>
     </row>
     <row r="5">
@@ -11763,28 +11763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>863.1383488117226</v>
+        <v>917.9974185512754</v>
       </c>
       <c r="AB5" t="n">
-        <v>1180.98396782067</v>
+        <v>1256.044567249673</v>
       </c>
       <c r="AC5" t="n">
-        <v>1068.272515453274</v>
+        <v>1136.169436620985</v>
       </c>
       <c r="AD5" t="n">
-        <v>863138.3488117226</v>
+        <v>917997.4185512754</v>
       </c>
       <c r="AE5" t="n">
-        <v>1180983.96782067</v>
+        <v>1256044.567249673</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.498021765408863e-06</v>
+        <v>3.041502097335039e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.20279947916667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1068272.515453274</v>
+        <v>1136169.436620985</v>
       </c>
     </row>
     <row r="6">
@@ -11869,28 +11869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>807.5825889652702</v>
+        <v>873.3280243879008</v>
       </c>
       <c r="AB6" t="n">
-        <v>1104.970126251609</v>
+        <v>1194.925931480756</v>
       </c>
       <c r="AC6" t="n">
-        <v>999.5133282374667</v>
+        <v>1080.88387766931</v>
       </c>
       <c r="AD6" t="n">
-        <v>807582.5889652702</v>
+        <v>873328.0243879007</v>
       </c>
       <c r="AE6" t="n">
-        <v>1104970.126251609</v>
+        <v>1194925.931480756</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.529572089602896e-06</v>
+        <v>3.105560163394955e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.9716796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>999513.3282374666</v>
+        <v>1080883.87766931</v>
       </c>
     </row>
     <row r="7">
@@ -11975,28 +11975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>774.7418870278797</v>
+        <v>840.4873224505102</v>
       </c>
       <c r="AB7" t="n">
-        <v>1060.036029031354</v>
+        <v>1149.991834260502</v>
       </c>
       <c r="AC7" t="n">
-        <v>958.8676781905122</v>
+        <v>1040.238227622356</v>
       </c>
       <c r="AD7" t="n">
-        <v>774741.8870278797</v>
+        <v>840487.3224505102</v>
       </c>
       <c r="AE7" t="n">
-        <v>1060036.029031354</v>
+        <v>1149991.834260502</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.548543526373165e-06</v>
+        <v>3.144078739064971e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.83658854166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>958867.6781905121</v>
+        <v>1040238.227622356</v>
       </c>
     </row>
     <row r="8">
@@ -12081,28 +12081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>745.4678719524928</v>
+        <v>811.2133073751233</v>
       </c>
       <c r="AB8" t="n">
-        <v>1019.982030126813</v>
+        <v>1109.937835355961</v>
       </c>
       <c r="AC8" t="n">
-        <v>922.6363767252797</v>
+        <v>1004.006926157123</v>
       </c>
       <c r="AD8" t="n">
-        <v>745467.8719524929</v>
+        <v>811213.3073751234</v>
       </c>
       <c r="AE8" t="n">
-        <v>1019982.030126813</v>
+        <v>1109937.835355961</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.562772103950866e-06</v>
+        <v>3.172967670817481e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.73893229166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>922636.3767252796</v>
+        <v>1004006.926157123</v>
       </c>
     </row>
     <row r="9">
@@ -12187,28 +12187,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>742.8095741863175</v>
+        <v>808.5550096089479</v>
       </c>
       <c r="AB9" t="n">
-        <v>1016.344829847311</v>
+        <v>1106.300635076459</v>
       </c>
       <c r="AC9" t="n">
-        <v>919.3463057356108</v>
+        <v>1000.716855167455</v>
       </c>
       <c r="AD9" t="n">
-        <v>742809.5741863175</v>
+        <v>808555.0096089479</v>
       </c>
       <c r="AE9" t="n">
-        <v>1016344.829847311</v>
+        <v>1106300.635076459</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.565040427912528e-06</v>
+        <v>3.17757315269107e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.72265625</v>
       </c>
       <c r="AH9" t="n">
-        <v>919346.3057356108</v>
+        <v>1000716.855167455</v>
       </c>
     </row>
     <row r="10">
@@ -12293,28 +12293,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>747.0063900092891</v>
+        <v>812.7518254319197</v>
       </c>
       <c r="AB10" t="n">
-        <v>1022.087098406748</v>
+        <v>1112.042903635896</v>
       </c>
       <c r="AC10" t="n">
-        <v>924.5405402430594</v>
+        <v>1005.911089674903</v>
       </c>
       <c r="AD10" t="n">
-        <v>747006.3900092891</v>
+        <v>812751.8254319197</v>
       </c>
       <c r="AE10" t="n">
-        <v>1022087.098406748</v>
+        <v>1112042.903635896</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.56524663918177e-06</v>
+        <v>3.177991832861396e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.72102864583333</v>
       </c>
       <c r="AH10" t="n">
-        <v>924540.5402430594</v>
+        <v>1005911.089674903</v>
       </c>
     </row>
   </sheetData>
@@ -12590,28 +12590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>836.7796163183244</v>
+        <v>907.0196935427073</v>
       </c>
       <c r="AB2" t="n">
-        <v>1144.918787157996</v>
+        <v>1241.024359589903</v>
       </c>
       <c r="AC2" t="n">
-        <v>1035.649345015246</v>
+        <v>1122.58273649927</v>
       </c>
       <c r="AD2" t="n">
-        <v>836779.6163183245</v>
+        <v>907019.6935427072</v>
       </c>
       <c r="AE2" t="n">
-        <v>1144918.787157996</v>
+        <v>1241024.359589903</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.405221683244231e-06</v>
+        <v>3.129154215007088e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.96549479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1035649.345015246</v>
+        <v>1122582.73649927</v>
       </c>
     </row>
     <row r="3">
@@ -12696,28 +12696,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>641.4770590516358</v>
+        <v>701.5853966330045</v>
       </c>
       <c r="AB3" t="n">
-        <v>877.6972121649824</v>
+        <v>959.940091436511</v>
       </c>
       <c r="AC3" t="n">
-        <v>793.9310220917299</v>
+        <v>868.3247563941899</v>
       </c>
       <c r="AD3" t="n">
-        <v>641477.0590516358</v>
+        <v>701585.3966330045</v>
       </c>
       <c r="AE3" t="n">
-        <v>877697.2121649823</v>
+        <v>959940.091436511</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.608941889035573e-06</v>
+        <v>3.582799321850556e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.3232421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>793931.0220917299</v>
+        <v>868324.7563941899</v>
       </c>
     </row>
     <row r="4">
@@ -12802,28 +12802,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>595.3534044448505</v>
+        <v>645.5859354383689</v>
       </c>
       <c r="AB4" t="n">
-        <v>814.5887930999489</v>
+        <v>883.3191581081436</v>
       </c>
       <c r="AC4" t="n">
-        <v>736.8455819690406</v>
+        <v>799.0164174045264</v>
       </c>
       <c r="AD4" t="n">
-        <v>595353.4044448505</v>
+        <v>645585.9354383689</v>
       </c>
       <c r="AE4" t="n">
-        <v>814588.7930999489</v>
+        <v>883319.1581081436</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.654834902428128e-06</v>
+        <v>3.684994098666942e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.00911458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>736845.5819690406</v>
+        <v>799016.4174045264</v>
       </c>
     </row>
     <row r="5">
@@ -12908,28 +12908,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>600.5092360418012</v>
+        <v>650.7417670353198</v>
       </c>
       <c r="AB5" t="n">
-        <v>821.6432293501338</v>
+        <v>890.3735943583285</v>
       </c>
       <c r="AC5" t="n">
-        <v>743.2267527244712</v>
+        <v>805.397588159957</v>
       </c>
       <c r="AD5" t="n">
-        <v>600509.2360418012</v>
+        <v>650741.7670353197</v>
       </c>
       <c r="AE5" t="n">
-        <v>821643.2293501338</v>
+        <v>890373.5943583285</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.65505877078614e-06</v>
+        <v>3.685492609773363e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.00748697916667</v>
       </c>
       <c r="AH5" t="n">
-        <v>743226.7527244713</v>
+        <v>805397.588159957</v>
       </c>
     </row>
   </sheetData>
@@ -13205,28 +13205,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3097.091399198123</v>
+        <v>3227.655591947062</v>
       </c>
       <c r="AB2" t="n">
-        <v>4237.577086412501</v>
+        <v>4416.220775017267</v>
       </c>
       <c r="AC2" t="n">
-        <v>3833.148676761926</v>
+        <v>3994.742862454239</v>
       </c>
       <c r="AD2" t="n">
-        <v>3097091.399198123</v>
+        <v>3227655.591947062</v>
       </c>
       <c r="AE2" t="n">
-        <v>4237577.086412501</v>
+        <v>4416220.775017267</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.476551076914376e-07</v>
+        <v>1.413639114283258e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.83821614583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3833148.676761926</v>
+        <v>3994742.862454238</v>
       </c>
     </row>
     <row r="3">
@@ -13311,28 +13311,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1650.948113985317</v>
+        <v>1734.003474932439</v>
       </c>
       <c r="AB3" t="n">
-        <v>2258.900044245085</v>
+        <v>2372.54005323686</v>
       </c>
       <c r="AC3" t="n">
-        <v>2043.313794408457</v>
+        <v>2146.108160436812</v>
       </c>
       <c r="AD3" t="n">
-        <v>1650948.113985317</v>
+        <v>1734003.474932439</v>
       </c>
       <c r="AE3" t="n">
-        <v>2258900.044245085</v>
+        <v>2372540.05323686</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.099036736207027e-06</v>
+        <v>2.078018731302058e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.17643229166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2043313.794408457</v>
+        <v>2146108.160436812</v>
       </c>
     </row>
     <row r="4">
@@ -13417,28 +13417,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1372.017345269416</v>
+        <v>1455.072616707987</v>
       </c>
       <c r="AB4" t="n">
-        <v>1877.254660930957</v>
+        <v>1990.894547453184</v>
       </c>
       <c r="AC4" t="n">
-        <v>1698.09211083517</v>
+        <v>1800.886366082298</v>
       </c>
       <c r="AD4" t="n">
-        <v>1372017.345269416</v>
+        <v>1455072.616707987</v>
       </c>
       <c r="AE4" t="n">
-        <v>1877254.660930956</v>
+        <v>1990894.547453184</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.229500685993665e-06</v>
+        <v>2.324695227623665e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.6708984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1698092.11083517</v>
+        <v>1800886.366082298</v>
       </c>
     </row>
     <row r="5">
@@ -13523,28 +13523,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1247.67646210953</v>
+        <v>1330.646392693529</v>
       </c>
       <c r="AB5" t="n">
-        <v>1707.125979058985</v>
+        <v>1820.649098459014</v>
       </c>
       <c r="AC5" t="n">
-        <v>1544.200271583954</v>
+        <v>1646.888903799143</v>
       </c>
       <c r="AD5" t="n">
-        <v>1247676.46210953</v>
+        <v>1330646.392693529</v>
       </c>
       <c r="AE5" t="n">
-        <v>1707125.979058984</v>
+        <v>1820649.098459014</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.298609249270226e-06</v>
+        <v>2.455363188257709e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.9970703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1544200.271583954</v>
+        <v>1646888.903799143</v>
       </c>
     </row>
     <row r="6">
@@ -13629,28 +13629,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1182.045710050447</v>
+        <v>1253.309092015998</v>
       </c>
       <c r="AB6" t="n">
-        <v>1617.327088667316</v>
+        <v>1714.832791791109</v>
       </c>
       <c r="AC6" t="n">
-        <v>1462.971661257732</v>
+        <v>1551.171556925504</v>
       </c>
       <c r="AD6" t="n">
-        <v>1182045.710050447</v>
+        <v>1253309.092015998</v>
       </c>
       <c r="AE6" t="n">
-        <v>1617327.088667316</v>
+        <v>1714832.791791109</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.34168245352847e-06</v>
+        <v>2.536804437960367e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.611328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1462971.661257732</v>
+        <v>1551171.556925504</v>
       </c>
     </row>
     <row r="7">
@@ -13735,28 +13735,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1137.817961910956</v>
+        <v>1208.910751675915</v>
       </c>
       <c r="AB7" t="n">
-        <v>1556.812732472324</v>
+        <v>1654.08502382127</v>
       </c>
       <c r="AC7" t="n">
-        <v>1408.232710285558</v>
+        <v>1496.221470670679</v>
       </c>
       <c r="AD7" t="n">
-        <v>1137817.961910956</v>
+        <v>1208910.751675915</v>
       </c>
       <c r="AE7" t="n">
-        <v>1556812.732472324</v>
+        <v>1654085.02382127</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.370685077729021e-06</v>
+        <v>2.59164154609349e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.36555989583333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1408232.710285558</v>
+        <v>1496221.470670679</v>
       </c>
     </row>
     <row r="8">
@@ -13841,28 +13841,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1101.830570384641</v>
+        <v>1161.216811531152</v>
       </c>
       <c r="AB8" t="n">
-        <v>1507.573195734358</v>
+        <v>1588.828070807066</v>
       </c>
       <c r="AC8" t="n">
-        <v>1363.692525825739</v>
+        <v>1437.192549663442</v>
       </c>
       <c r="AD8" t="n">
-        <v>1101830.570384641</v>
+        <v>1161216.811531151</v>
       </c>
       <c r="AE8" t="n">
-        <v>1507573.195734357</v>
+        <v>1588828.070807066</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.393178862174993e-06</v>
+        <v>2.634171976493768e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.18326822916667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1363692.525825739</v>
+        <v>1437192.549663442</v>
       </c>
     </row>
     <row r="9">
@@ -13947,28 +13947,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1091.601026933175</v>
+        <v>1150.987268079686</v>
       </c>
       <c r="AB9" t="n">
-        <v>1493.576683088455</v>
+        <v>1574.831558161164</v>
       </c>
       <c r="AC9" t="n">
-        <v>1351.031820702533</v>
+        <v>1424.531844540236</v>
       </c>
       <c r="AD9" t="n">
-        <v>1091601.026933176</v>
+        <v>1150987.268079686</v>
       </c>
       <c r="AE9" t="n">
-        <v>1493576.683088455</v>
+        <v>1574831.558161164</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.397294746137448e-06</v>
+        <v>2.641954140354244e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.14908854166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1351031.820702533</v>
+        <v>1424531.844540236</v>
       </c>
     </row>
     <row r="10">
@@ -14053,28 +14053,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1044.769234221499</v>
+        <v>1115.947275332479</v>
       </c>
       <c r="AB10" t="n">
-        <v>1429.499358227462</v>
+        <v>1526.888294229057</v>
       </c>
       <c r="AC10" t="n">
-        <v>1293.069945793182</v>
+        <v>1381.164218429015</v>
       </c>
       <c r="AD10" t="n">
-        <v>1044769.234221499</v>
+        <v>1115947.275332479</v>
       </c>
       <c r="AE10" t="n">
-        <v>1429499.358227462</v>
+        <v>1526888.294229056</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.418927066498255e-06</v>
+        <v>2.682855745760468e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.97981770833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1293069.945793182</v>
+        <v>1381164.218429015</v>
       </c>
     </row>
     <row r="11">
@@ -14159,28 +14159,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1021.50412478533</v>
+        <v>1092.682165896309</v>
       </c>
       <c r="AB11" t="n">
-        <v>1397.667009112705</v>
+        <v>1495.0559451143</v>
       </c>
       <c r="AC11" t="n">
-        <v>1264.275631400955</v>
+        <v>1352.369904036788</v>
       </c>
       <c r="AD11" t="n">
-        <v>1021504.12478533</v>
+        <v>1092682.165896309</v>
       </c>
       <c r="AE11" t="n">
-        <v>1397667.009112705</v>
+        <v>1495055.9451143</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.430508972532139e-06</v>
+        <v>2.704754392902739e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.89029947916667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1264275.631400955</v>
+        <v>1352369.904036788</v>
       </c>
     </row>
     <row r="12">
@@ -14265,28 +14265,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1005.974529792025</v>
+        <v>1077.152570903005</v>
       </c>
       <c r="AB12" t="n">
-        <v>1376.418732125488</v>
+        <v>1473.807668127083</v>
       </c>
       <c r="AC12" t="n">
-        <v>1245.055260147254</v>
+        <v>1333.149532783087</v>
       </c>
       <c r="AD12" t="n">
-        <v>1005974.529792025</v>
+        <v>1077152.570903005</v>
       </c>
       <c r="AE12" t="n">
-        <v>1376418.732125488</v>
+        <v>1473807.668127083</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.437592121676828e-06</v>
+        <v>2.718146953964954e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.83658854166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1245055.260147254</v>
+        <v>1333149.532783087</v>
       </c>
     </row>
     <row r="13">
@@ -14371,28 +14371,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>986.9531148759183</v>
+        <v>1058.131155986898</v>
       </c>
       <c r="AB13" t="n">
-        <v>1350.39279307167</v>
+        <v>1447.781729073265</v>
       </c>
       <c r="AC13" t="n">
-        <v>1221.513200189097</v>
+        <v>1309.607472824931</v>
       </c>
       <c r="AD13" t="n">
-        <v>986953.1148759184</v>
+        <v>1058131.155986898</v>
       </c>
       <c r="AE13" t="n">
-        <v>1350392.79307167</v>
+        <v>1447781.729073265</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.445536734906682e-06</v>
+        <v>2.733168340021222e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.77799479166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1221513.200189097</v>
+        <v>1309607.472824931</v>
       </c>
     </row>
     <row r="14">
@@ -14477,28 +14477,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>967.7220227863909</v>
+        <v>1038.90006389737</v>
       </c>
       <c r="AB14" t="n">
-        <v>1324.079964458874</v>
+        <v>1421.468900460468</v>
       </c>
       <c r="AC14" t="n">
-        <v>1197.71163100882</v>
+        <v>1285.805903644653</v>
       </c>
       <c r="AD14" t="n">
-        <v>967722.0227863909</v>
+        <v>1038900.06389737</v>
       </c>
       <c r="AE14" t="n">
-        <v>1324079.964458873</v>
+        <v>1421468.900460468</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.451949856429576e-06</v>
+        <v>2.745294037199174e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.72916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1197711.63100882</v>
+        <v>1285805.903644653</v>
       </c>
     </row>
     <row r="15">
@@ -14583,28 +14583,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>953.7587971645405</v>
+        <v>1024.93683827552</v>
       </c>
       <c r="AB15" t="n">
-        <v>1304.974863149019</v>
+        <v>1402.363799150614</v>
       </c>
       <c r="AC15" t="n">
-        <v>1180.4298937538</v>
+        <v>1268.524166389633</v>
       </c>
       <c r="AD15" t="n">
-        <v>953758.7971645405</v>
+        <v>1024936.83827552</v>
       </c>
       <c r="AE15" t="n">
-        <v>1304974.863149019</v>
+        <v>1402363.799150614</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.45510855807518e-06</v>
+        <v>2.751266395510702e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.70638020833333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1180429.8937538</v>
+        <v>1268524.166389633</v>
       </c>
     </row>
     <row r="16">
@@ -14689,28 +14689,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>936.7963089836055</v>
+        <v>1007.974350094585</v>
       </c>
       <c r="AB16" t="n">
-        <v>1281.7660384877</v>
+        <v>1379.154974489295</v>
       </c>
       <c r="AC16" t="n">
-        <v>1159.436086744367</v>
+        <v>1247.5303593802</v>
       </c>
       <c r="AD16" t="n">
-        <v>936796.3089836055</v>
+        <v>1007974.350094585</v>
       </c>
       <c r="AE16" t="n">
-        <v>1281766.0384877</v>
+        <v>1379154.974489295</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.46142596136639e-06</v>
+        <v>2.763211112133758e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.66080729166667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1159436.086744367</v>
+        <v>1247530.3593802</v>
       </c>
     </row>
     <row r="17">
@@ -14795,28 +14795,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>927.6126454811255</v>
+        <v>998.790686592105</v>
       </c>
       <c r="AB17" t="n">
-        <v>1269.200544928968</v>
+        <v>1366.589480930563</v>
       </c>
       <c r="AC17" t="n">
-        <v>1148.069826255099</v>
+        <v>1236.164098890932</v>
       </c>
       <c r="AD17" t="n">
-        <v>927612.6454811255</v>
+        <v>998790.686592105</v>
       </c>
       <c r="AE17" t="n">
-        <v>1269200.544928968</v>
+        <v>1366589.480930563</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.461713116061444e-06</v>
+        <v>2.763754053798443e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.65755208333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1148069.826255099</v>
+        <v>1236164.098890932</v>
       </c>
     </row>
     <row r="18">
@@ -14901,28 +14901,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>926.8051911814965</v>
+        <v>997.983232292476</v>
       </c>
       <c r="AB18" t="n">
-        <v>1268.095750333846</v>
+        <v>1365.484686335441</v>
       </c>
       <c r="AC18" t="n">
-        <v>1147.070471705547</v>
+        <v>1235.164744341379</v>
       </c>
       <c r="AD18" t="n">
-        <v>926805.1911814965</v>
+        <v>997983.232292476</v>
       </c>
       <c r="AE18" t="n">
-        <v>1268095.750333846</v>
+        <v>1365484.68633544</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.463531762463459e-06</v>
+        <v>2.767192684341444e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.64453125</v>
       </c>
       <c r="AH18" t="n">
-        <v>1147070.471705547</v>
+        <v>1235164.744341379</v>
       </c>
     </row>
     <row r="19">
@@ -15007,28 +15007,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>930.9992302548137</v>
+        <v>1002.177271365793</v>
       </c>
       <c r="AB19" t="n">
-        <v>1273.834219621904</v>
+        <v>1371.223155623499</v>
       </c>
       <c r="AC19" t="n">
-        <v>1152.261269538744</v>
+        <v>1240.355542174577</v>
       </c>
       <c r="AD19" t="n">
-        <v>930999.2302548137</v>
+        <v>1002177.271365793</v>
       </c>
       <c r="AE19" t="n">
-        <v>1273834.219621904</v>
+        <v>1371223.155623499</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.463148889536719e-06</v>
+        <v>2.766468762121864e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.64778645833333</v>
       </c>
       <c r="AH19" t="n">
-        <v>1152261.269538744</v>
+        <v>1240355.542174577</v>
       </c>
     </row>
   </sheetData>
@@ -15304,28 +15304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>699.0321825021686</v>
+        <v>757.7444650649406</v>
       </c>
       <c r="AB2" t="n">
-        <v>956.4466712228439</v>
+        <v>1036.779406428328</v>
       </c>
       <c r="AC2" t="n">
-        <v>865.164743302669</v>
+        <v>937.8306350078435</v>
       </c>
       <c r="AD2" t="n">
-        <v>699032.1825021686</v>
+        <v>757744.4650649406</v>
       </c>
       <c r="AE2" t="n">
-        <v>956446.6712228438</v>
+        <v>1036779.406428328</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.503372605320375e-06</v>
+        <v>3.44658204508873e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.40234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>865164.7433026689</v>
+        <v>937830.6350078435</v>
       </c>
     </row>
     <row r="3">
@@ -15410,28 +15410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>555.954067401792</v>
+        <v>604.9521018343369</v>
       </c>
       <c r="AB3" t="n">
-        <v>760.6808819815603</v>
+        <v>827.7221543328865</v>
       </c>
       <c r="AC3" t="n">
-        <v>688.0825662275627</v>
+        <v>748.7255136386948</v>
       </c>
       <c r="AD3" t="n">
-        <v>555954.067401792</v>
+        <v>604952.1018343369</v>
       </c>
       <c r="AE3" t="n">
-        <v>760680.8819815604</v>
+        <v>827722.1543328864</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.668326624800818e-06</v>
+        <v>3.824750145128944e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.17513020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>688082.5662275626</v>
+        <v>748725.5136386948</v>
       </c>
     </row>
     <row r="4">
@@ -15516,28 +15516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>560.2020009441017</v>
+        <v>609.2000353766464</v>
       </c>
       <c r="AB4" t="n">
-        <v>766.4930920597499</v>
+        <v>833.5343644110758</v>
       </c>
       <c r="AC4" t="n">
-        <v>693.3400671333776</v>
+        <v>753.9830145445101</v>
       </c>
       <c r="AD4" t="n">
-        <v>560202.0009441016</v>
+        <v>609200.0353766464</v>
       </c>
       <c r="AE4" t="n">
-        <v>766493.0920597499</v>
+        <v>833534.3644110758</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.669701241629822e-06</v>
+        <v>3.827901545962613e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.1669921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>693340.0671333777</v>
+        <v>753983.01454451</v>
       </c>
     </row>
   </sheetData>
@@ -15813,28 +15813,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2134.709127456215</v>
+        <v>2237.266743456131</v>
       </c>
       <c r="AB2" t="n">
-        <v>2920.803204905637</v>
+        <v>3061.12705963959</v>
       </c>
       <c r="AC2" t="n">
-        <v>2642.045846402487</v>
+        <v>2768.977389386284</v>
       </c>
       <c r="AD2" t="n">
-        <v>2134709.127456215</v>
+        <v>2237266.743456131</v>
       </c>
       <c r="AE2" t="n">
-        <v>2920803.204905638</v>
+        <v>3061127.05963959</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.136321621699761e-07</v>
+        <v>1.790706411516806e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.72786458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2642045.846402487</v>
+        <v>2768977.389386284</v>
       </c>
     </row>
     <row r="3">
@@ -15919,28 +15919,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1304.204028981439</v>
+        <v>1372.575862489932</v>
       </c>
       <c r="AB3" t="n">
-        <v>1784.469489873376</v>
+        <v>1878.018848832107</v>
       </c>
       <c r="AC3" t="n">
-        <v>1614.162226278519</v>
+        <v>1698.783365715579</v>
       </c>
       <c r="AD3" t="n">
-        <v>1304204.028981439</v>
+        <v>1372575.862489932</v>
       </c>
       <c r="AE3" t="n">
-        <v>1784469.489873376</v>
+        <v>1878018.848832107</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.230681728521522e-06</v>
+        <v>2.412119179961697e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.16080729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1614162.226278519</v>
+        <v>1698783.365715579</v>
       </c>
     </row>
     <row r="4">
@@ -16025,28 +16025,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1122.614452578235</v>
+        <v>1190.900945232156</v>
       </c>
       <c r="AB4" t="n">
-        <v>1536.010620271801</v>
+        <v>1629.443212108335</v>
       </c>
       <c r="AC4" t="n">
-        <v>1389.415922477505</v>
+        <v>1473.931438882626</v>
       </c>
       <c r="AD4" t="n">
-        <v>1122614.452578235</v>
+        <v>1190900.945232156</v>
       </c>
       <c r="AE4" t="n">
-        <v>1536010.620271801</v>
+        <v>1629443.212108335</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.345122093023807e-06</v>
+        <v>2.636420712827869e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.041015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1389415.922477505</v>
+        <v>1473931.438882626</v>
       </c>
     </row>
     <row r="5">
@@ -16131,28 +16131,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1032.770719415574</v>
+        <v>1101.142463415516</v>
       </c>
       <c r="AB5" t="n">
-        <v>1413.08246093288</v>
+        <v>1506.631697422063</v>
       </c>
       <c r="AC5" t="n">
-        <v>1278.219854135136</v>
+        <v>1362.840882790968</v>
       </c>
       <c r="AD5" t="n">
-        <v>1032770.719415574</v>
+        <v>1101142.463415516</v>
       </c>
       <c r="AE5" t="n">
-        <v>1413082.46093288</v>
+        <v>1506631.697422063</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.40323789551888e-06</v>
+        <v>2.750326882561647e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.54296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1278219.854135136</v>
+        <v>1362840.882790969</v>
       </c>
     </row>
     <row r="6">
@@ -16237,28 +16237,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>981.8642080993425</v>
+        <v>1050.065359898692</v>
       </c>
       <c r="AB6" t="n">
-        <v>1343.429926313236</v>
+        <v>1436.745751027572</v>
       </c>
       <c r="AC6" t="n">
-        <v>1215.214859661644</v>
+        <v>1299.624753034826</v>
       </c>
       <c r="AD6" t="n">
-        <v>981864.2080993425</v>
+        <v>1050065.359898692</v>
       </c>
       <c r="AE6" t="n">
-        <v>1343429.926313236</v>
+        <v>1436745.751027572</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.440455892322231e-06</v>
+        <v>2.82327364194595e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.24348958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1215214.859661644</v>
+        <v>1299624.753034826</v>
       </c>
     </row>
     <row r="7">
@@ -16343,28 +16343,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>943.827136852699</v>
+        <v>1000.803679694535</v>
       </c>
       <c r="AB7" t="n">
-        <v>1291.385927356428</v>
+        <v>1369.343746900295</v>
       </c>
       <c r="AC7" t="n">
-        <v>1168.137866921063</v>
+        <v>1238.65550158215</v>
       </c>
       <c r="AD7" t="n">
-        <v>943827.136852699</v>
+        <v>1000803.679694535</v>
       </c>
       <c r="AE7" t="n">
-        <v>1291385.927356428</v>
+        <v>1369343.746900295</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.466229852675355e-06</v>
+        <v>2.873790248043636e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.04654947916667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1168137.866921063</v>
+        <v>1238655.50158215</v>
       </c>
     </row>
     <row r="8">
@@ -16449,28 +16449,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>908.0566366062841</v>
+        <v>976.3430397516544</v>
       </c>
       <c r="AB8" t="n">
-        <v>1242.443150836188</v>
+        <v>1335.875620203173</v>
       </c>
       <c r="AC8" t="n">
-        <v>1123.866120300296</v>
+        <v>1208.38152592419</v>
       </c>
       <c r="AD8" t="n">
-        <v>908056.6366062841</v>
+        <v>976343.0397516544</v>
       </c>
       <c r="AE8" t="n">
-        <v>1242443.150836188</v>
+        <v>1335875.620203173</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.479067076171698e-06</v>
+        <v>2.898951028686885e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.95052083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1123866.120300296</v>
+        <v>1208381.52592419</v>
       </c>
     </row>
     <row r="9">
@@ -16555,28 +16555,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>878.9301640603478</v>
+        <v>947.2165672057181</v>
       </c>
       <c r="AB9" t="n">
-        <v>1202.591026129558</v>
+        <v>1296.023495496543</v>
       </c>
       <c r="AC9" t="n">
-        <v>1087.817426442858</v>
+        <v>1172.332832066752</v>
       </c>
       <c r="AD9" t="n">
-        <v>878930.1640603478</v>
+        <v>947216.5672057181</v>
       </c>
       <c r="AE9" t="n">
-        <v>1202591.026129558</v>
+        <v>1296023.495496543</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.495188240562454e-06</v>
+        <v>2.930548288099337e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1087817.426442858</v>
+        <v>1172332.832066752</v>
       </c>
     </row>
     <row r="10">
@@ -16661,28 +16661,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>852.9246447627761</v>
+        <v>921.2110479081464</v>
       </c>
       <c r="AB10" t="n">
-        <v>1167.00912734408</v>
+        <v>1260.441596711065</v>
       </c>
       <c r="AC10" t="n">
-        <v>1055.631414137958</v>
+        <v>1140.146819761852</v>
       </c>
       <c r="AD10" t="n">
-        <v>852924.6447627761</v>
+        <v>921211.0479081464</v>
       </c>
       <c r="AE10" t="n">
-        <v>1167009.12734408</v>
+        <v>1260441.596711065</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.506433250291809e-06</v>
+        <v>2.952588351763578e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.751953125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1055631.414137958</v>
+        <v>1140146.819761852</v>
       </c>
     </row>
     <row r="11">
@@ -16767,28 +16767,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>829.660047857403</v>
+        <v>897.9464510027734</v>
       </c>
       <c r="AB11" t="n">
-        <v>1135.17747949657</v>
+        <v>1228.609948863555</v>
       </c>
       <c r="AC11" t="n">
-        <v>1026.837734085016</v>
+        <v>1111.35313970891</v>
       </c>
       <c r="AD11" t="n">
-        <v>829660.0478574031</v>
+        <v>897946.4510027734</v>
       </c>
       <c r="AE11" t="n">
-        <v>1135177.47949657</v>
+        <v>1228609.948863555</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.515090912649808e-06</v>
+        <v>2.969557250336932e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.69010416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1026837.734085016</v>
+        <v>1111353.13970891</v>
       </c>
     </row>
     <row r="12">
@@ -16873,28 +16873,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>821.0294628370164</v>
+        <v>889.3158659823865</v>
       </c>
       <c r="AB12" t="n">
-        <v>1123.368732317138</v>
+        <v>1216.801201684123</v>
       </c>
       <c r="AC12" t="n">
-        <v>1016.155997162708</v>
+        <v>1100.671402786602</v>
       </c>
       <c r="AD12" t="n">
-        <v>821029.4628370163</v>
+        <v>889315.8659823865</v>
       </c>
       <c r="AE12" t="n">
-        <v>1123368.732317138</v>
+        <v>1216801.201684123</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.519170960427716e-06</v>
+        <v>2.977554087595639e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.66243489583333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1016155.997162708</v>
+        <v>1100671.402786602</v>
       </c>
     </row>
     <row r="13">
@@ -16979,28 +16979,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>824.4259707175167</v>
+        <v>892.7123738628871</v>
       </c>
       <c r="AB13" t="n">
-        <v>1128.015984242591</v>
+        <v>1221.448453609576</v>
       </c>
       <c r="AC13" t="n">
-        <v>1020.359721886855</v>
+        <v>1104.875127510749</v>
       </c>
       <c r="AD13" t="n">
-        <v>824425.9707175167</v>
+        <v>892712.3738628872</v>
       </c>
       <c r="AE13" t="n">
-        <v>1128015.984242591</v>
+        <v>1221448.453609576</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.519071447067279e-06</v>
+        <v>2.977359042784452e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.66243489583333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1020359.721886855</v>
+        <v>1104875.127510749</v>
       </c>
     </row>
   </sheetData>
@@ -17276,28 +17276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2585.365804842806</v>
+        <v>2701.653985302259</v>
       </c>
       <c r="AB2" t="n">
-        <v>3537.411552475609</v>
+        <v>3696.522171252688</v>
       </c>
       <c r="AC2" t="n">
-        <v>3199.805958695499</v>
+        <v>3343.731283329644</v>
       </c>
       <c r="AD2" t="n">
-        <v>2585365.804842806</v>
+        <v>2701653.985302259</v>
       </c>
       <c r="AE2" t="n">
-        <v>3537411.552475609</v>
+        <v>3696522.171252688</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.262426867036126e-07</v>
+        <v>1.588619359575279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.20735677083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3199805.958695499</v>
+        <v>3343731.283329644</v>
       </c>
     </row>
     <row r="3">
@@ -17382,28 +17382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1467.318716912957</v>
+        <v>1548.839857774989</v>
       </c>
       <c r="AB3" t="n">
-        <v>2007.650202013435</v>
+        <v>2119.191023399776</v>
       </c>
       <c r="AC3" t="n">
-        <v>1816.042884488028</v>
+        <v>1916.938406429783</v>
       </c>
       <c r="AD3" t="n">
-        <v>1467318.716912957</v>
+        <v>1548839.857774989</v>
       </c>
       <c r="AE3" t="n">
-        <v>2007650.202013435</v>
+        <v>2119191.023399776</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.162238945658138e-06</v>
+        <v>2.234640401951537e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.65397135416667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1816042.884488028</v>
+        <v>1916938.406429783</v>
       </c>
     </row>
     <row r="4">
@@ -17488,28 +17488,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1245.844619328582</v>
+        <v>1315.634631578588</v>
       </c>
       <c r="AB4" t="n">
-        <v>1704.619570950892</v>
+        <v>1800.109344629393</v>
       </c>
       <c r="AC4" t="n">
-        <v>1541.933071547932</v>
+        <v>1628.309435247296</v>
       </c>
       <c r="AD4" t="n">
-        <v>1245844.619328582</v>
+        <v>1315634.631578588</v>
       </c>
       <c r="AE4" t="n">
-        <v>1704619.570950892</v>
+        <v>1800109.344629392</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.28509306239717e-06</v>
+        <v>2.470852390748428e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.3486328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1541933.071547932</v>
+        <v>1628309.435247296</v>
       </c>
     </row>
     <row r="5">
@@ -17594,28 +17594,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1137.360459145736</v>
+        <v>1207.235722741764</v>
       </c>
       <c r="AB5" t="n">
-        <v>1556.186757005353</v>
+        <v>1651.793175336503</v>
       </c>
       <c r="AC5" t="n">
-        <v>1407.666477038593</v>
+        <v>1494.148352988668</v>
       </c>
       <c r="AD5" t="n">
-        <v>1137360.459145736</v>
+        <v>1207235.722741764</v>
       </c>
       <c r="AE5" t="n">
-        <v>1556186.757005353</v>
+        <v>1651793.175336503</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.350907767793079e-06</v>
+        <v>2.597394527603904e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.748046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1407666.477038593</v>
+        <v>1494148.352988668</v>
       </c>
     </row>
     <row r="6">
@@ -17700,28 +17700,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1082.112058246133</v>
+        <v>1151.816729641569</v>
       </c>
       <c r="AB6" t="n">
-        <v>1480.593457507092</v>
+        <v>1575.966464063395</v>
       </c>
       <c r="AC6" t="n">
-        <v>1339.287695948583</v>
+        <v>1425.558436616008</v>
       </c>
       <c r="AD6" t="n">
-        <v>1082112.058246133</v>
+        <v>1151816.729641569</v>
       </c>
       <c r="AE6" t="n">
-        <v>1480593.457507092</v>
+        <v>1575966.464063395</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.38903154528908e-06</v>
+        <v>2.670695232063892e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.42415364583333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1339287.695948583</v>
+        <v>1425558.436616008</v>
       </c>
     </row>
     <row r="7">
@@ -17806,28 +17806,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1042.234804249355</v>
+        <v>1100.464280087929</v>
       </c>
       <c r="AB7" t="n">
-        <v>1426.031639328415</v>
+        <v>1505.703777073923</v>
       </c>
       <c r="AC7" t="n">
-        <v>1289.933181118887</v>
+        <v>1362.00152185851</v>
       </c>
       <c r="AD7" t="n">
-        <v>1042234.804249355</v>
+        <v>1100464.280087929</v>
       </c>
       <c r="AE7" t="n">
-        <v>1426031.639328416</v>
+        <v>1505703.777073923</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.416039950318216e-06</v>
+        <v>2.722624375632732e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.20768229166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1289933.181118887</v>
+        <v>1362001.52185851</v>
       </c>
     </row>
     <row r="8">
@@ -17912,28 +17912,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>986.6581333048654</v>
+        <v>1056.448056046321</v>
       </c>
       <c r="AB8" t="n">
-        <v>1349.989186272486</v>
+        <v>1445.478837481439</v>
       </c>
       <c r="AC8" t="n">
-        <v>1221.148113056363</v>
+        <v>1307.5243659745</v>
       </c>
       <c r="AD8" t="n">
-        <v>986658.1333048653</v>
+        <v>1056448.056046321</v>
       </c>
       <c r="AE8" t="n">
-        <v>1349989.186272486</v>
+        <v>1445478.837481439</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.445485937028683e-06</v>
+        <v>2.779240265011035e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.97981770833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1221148.113056363</v>
+        <v>1307524.3659745</v>
       </c>
     </row>
     <row r="9">
@@ -18018,28 +18018,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>975.6919840896348</v>
+        <v>1045.481906831091</v>
       </c>
       <c r="AB9" t="n">
-        <v>1334.984817123849</v>
+        <v>1430.474468332801</v>
       </c>
       <c r="AC9" t="n">
-        <v>1207.575739840507</v>
+        <v>1293.951992758644</v>
       </c>
       <c r="AD9" t="n">
-        <v>975691.9840896348</v>
+        <v>1045481.906831091</v>
       </c>
       <c r="AE9" t="n">
-        <v>1334984.817123849</v>
+        <v>1430474.468332801</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.448508538313532e-06</v>
+        <v>2.785051829814768e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.95540364583333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1207575.739840507</v>
+        <v>1293951.992758644</v>
       </c>
     </row>
     <row r="10">
@@ -18124,28 +18124,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>951.3355744902834</v>
+        <v>1021.125497231739</v>
       </c>
       <c r="AB10" t="n">
-        <v>1301.659302981062</v>
+        <v>1397.148954190014</v>
       </c>
       <c r="AC10" t="n">
-        <v>1177.430765994854</v>
+        <v>1263.807018912991</v>
       </c>
       <c r="AD10" t="n">
-        <v>951335.5744902834</v>
+        <v>1021125.497231739</v>
       </c>
       <c r="AE10" t="n">
-        <v>1301659.302981061</v>
+        <v>1397148.954190014</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.461573976125461e-06</v>
+        <v>2.810172787353485e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.85774739583333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1177430.765994854</v>
+        <v>1263807.018912991</v>
       </c>
     </row>
     <row r="11">
@@ -18230,28 +18230,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>931.8607784727534</v>
+        <v>1001.650701214209</v>
       </c>
       <c r="AB11" t="n">
-        <v>1275.013027902514</v>
+        <v>1370.502679111466</v>
       </c>
       <c r="AC11" t="n">
-        <v>1153.327574011521</v>
+        <v>1239.703826929658</v>
       </c>
       <c r="AD11" t="n">
-        <v>931860.7784727534</v>
+        <v>1001650.701214209</v>
       </c>
       <c r="AE11" t="n">
-        <v>1275013.027902514</v>
+        <v>1370502.679111466</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.470056760376489e-06</v>
+        <v>2.826482662770413e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.7958984375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1153327.574011521</v>
+        <v>1239703.826929658</v>
       </c>
     </row>
     <row r="12">
@@ -18336,28 +18336,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>909.6630049007363</v>
+        <v>979.452927642192</v>
       </c>
       <c r="AB12" t="n">
-        <v>1244.641054804625</v>
+        <v>1340.130706013577</v>
       </c>
       <c r="AC12" t="n">
-        <v>1125.854259398763</v>
+        <v>1212.2305123169</v>
       </c>
       <c r="AD12" t="n">
-        <v>909663.0049007363</v>
+        <v>979452.927642192</v>
       </c>
       <c r="AE12" t="n">
-        <v>1244641.054804625</v>
+        <v>1340130.706013577</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.477759518489492e-06</v>
+        <v>2.841292779528313e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.73893229166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1125854.259398763</v>
+        <v>1212230.5123169</v>
       </c>
     </row>
     <row r="13">
@@ -18442,28 +18442,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>890.9421188574826</v>
+        <v>960.7320415989384</v>
       </c>
       <c r="AB13" t="n">
-        <v>1219.026312613043</v>
+        <v>1314.515963821995</v>
       </c>
       <c r="AC13" t="n">
-        <v>1102.684152251429</v>
+        <v>1189.060405169566</v>
       </c>
       <c r="AD13" t="n">
-        <v>890942.1188574826</v>
+        <v>960732.0415989384</v>
       </c>
       <c r="AE13" t="n">
-        <v>1219026.312613043</v>
+        <v>1314515.963821995</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.484194734128203e-06</v>
+        <v>2.853665788465293e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.693359375</v>
       </c>
       <c r="AH13" t="n">
-        <v>1102684.152251429</v>
+        <v>1189060.405169566</v>
       </c>
     </row>
     <row r="14">
@@ -18548,28 +18548,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>875.9222904236401</v>
+        <v>945.7122131650959</v>
       </c>
       <c r="AB14" t="n">
-        <v>1198.475520721795</v>
+        <v>1293.965171930747</v>
       </c>
       <c r="AC14" t="n">
-        <v>1084.094699095064</v>
+        <v>1170.470952013201</v>
       </c>
       <c r="AD14" t="n">
-        <v>875922.29042364</v>
+        <v>945712.2131650959</v>
       </c>
       <c r="AE14" t="n">
-        <v>1198475.520721795</v>
+        <v>1293965.171930747</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.48897239422361e-06</v>
+        <v>2.862851810251839e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.65755208333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1084094.699095064</v>
+        <v>1170470.952013201</v>
       </c>
     </row>
     <row r="15">
@@ -18654,28 +18654,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>875.2048842496035</v>
+        <v>944.9948069910594</v>
       </c>
       <c r="AB15" t="n">
-        <v>1197.493933944751</v>
+        <v>1292.983585153704</v>
       </c>
       <c r="AC15" t="n">
-        <v>1083.206793582356</v>
+        <v>1169.583046500493</v>
       </c>
       <c r="AD15" t="n">
-        <v>875204.8842496035</v>
+        <v>944994.8069910593</v>
       </c>
       <c r="AE15" t="n">
-        <v>1197493.933944751</v>
+        <v>1292983.585153704</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.488874890956356e-06</v>
+        <v>2.86266434041946e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.6591796875</v>
       </c>
       <c r="AH15" t="n">
-        <v>1083206.793582356</v>
+        <v>1169583.046500493</v>
       </c>
     </row>
     <row r="16">
@@ -18760,28 +18760,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>875.9037685659464</v>
+        <v>945.6936913074023</v>
       </c>
       <c r="AB16" t="n">
-        <v>1198.450178298972</v>
+        <v>1293.939829507924</v>
       </c>
       <c r="AC16" t="n">
-        <v>1084.071775317507</v>
+        <v>1170.448028235644</v>
       </c>
       <c r="AD16" t="n">
-        <v>875903.7685659464</v>
+        <v>945693.6913074023</v>
       </c>
       <c r="AE16" t="n">
-        <v>1198450.178298972</v>
+        <v>1293939.829507924</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.491312472637686e-06</v>
+        <v>2.867351086228923e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.64127604166667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1084071.775317507</v>
+        <v>1170448.028235644</v>
       </c>
     </row>
   </sheetData>
@@ -19057,28 +19057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3729.7945804832</v>
+        <v>3874.823504901063</v>
       </c>
       <c r="AB2" t="n">
-        <v>5103.269491941158</v>
+        <v>5301.704464554271</v>
       </c>
       <c r="AC2" t="n">
-        <v>4616.220614113817</v>
+        <v>4795.71723144596</v>
       </c>
       <c r="AD2" t="n">
-        <v>3729794.5804832</v>
+        <v>3874823.504901063</v>
       </c>
       <c r="AE2" t="n">
-        <v>5103269.491941158</v>
+        <v>5301704.464554271</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.745977192205797e-07</v>
+        <v>1.256724385083139e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.70833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4616220.614113817</v>
+        <v>4795717.231445961</v>
       </c>
     </row>
     <row r="3">
@@ -19163,28 +19163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1834.445094815327</v>
+        <v>1931.102597475712</v>
       </c>
       <c r="AB3" t="n">
-        <v>2509.968708732161</v>
+        <v>2642.219768100163</v>
       </c>
       <c r="AC3" t="n">
-        <v>2270.420817933971</v>
+        <v>2390.050021811418</v>
       </c>
       <c r="AD3" t="n">
-        <v>1834445.094815327</v>
+        <v>1931102.597475712</v>
       </c>
       <c r="AE3" t="n">
-        <v>2509968.708732161</v>
+        <v>2642219.768100163</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.039942075528377e-06</v>
+        <v>1.937333210821525e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.72981770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2270420.817933971</v>
+        <v>2390050.021811418</v>
       </c>
     </row>
     <row r="4">
@@ -19269,28 +19269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1499.944332041572</v>
+        <v>1584.508979262587</v>
       </c>
       <c r="AB4" t="n">
-        <v>2052.290007972962</v>
+        <v>2167.995089029688</v>
       </c>
       <c r="AC4" t="n">
-        <v>1856.422330019139</v>
+        <v>1961.084680532912</v>
       </c>
       <c r="AD4" t="n">
-        <v>1499944.332041572</v>
+        <v>1584508.979262587</v>
       </c>
       <c r="AE4" t="n">
-        <v>2052290.007972962</v>
+        <v>2167995.089029688</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.178381423320435e-06</v>
+        <v>2.195235215628626e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.998046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1856422.330019139</v>
+        <v>1961084.680532912</v>
       </c>
     </row>
     <row r="5">
@@ -19375,28 +19375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1369.317054682179</v>
+        <v>1441.788935972376</v>
       </c>
       <c r="AB5" t="n">
-        <v>1873.560004221087</v>
+        <v>1972.719229436086</v>
       </c>
       <c r="AC5" t="n">
-        <v>1694.750066976207</v>
+        <v>1784.445674907533</v>
       </c>
       <c r="AD5" t="n">
-        <v>1369317.054682179</v>
+        <v>1441788.935972376</v>
       </c>
       <c r="AE5" t="n">
-        <v>1873560.004221086</v>
+        <v>1972719.229436086</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.251600874430035e-06</v>
+        <v>2.331637499612259e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.23958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1694750.066976207</v>
+        <v>1784445.674907533</v>
       </c>
     </row>
     <row r="6">
@@ -19481,28 +19481,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1282.746318446315</v>
+        <v>1355.303451082532</v>
       </c>
       <c r="AB6" t="n">
-        <v>1755.110103671842</v>
+        <v>1854.385973539492</v>
       </c>
       <c r="AC6" t="n">
-        <v>1587.604858689902</v>
+        <v>1677.405978871942</v>
       </c>
       <c r="AD6" t="n">
-        <v>1282746.318446315</v>
+        <v>1355303.451082532</v>
       </c>
       <c r="AE6" t="n">
-        <v>1755110.103671842</v>
+        <v>1854385.973539492</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.296963053652178e-06</v>
+        <v>2.416143798944021e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.8115234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1587604.858689902</v>
+        <v>1677405.978871942</v>
       </c>
     </row>
     <row r="7">
@@ -19587,28 +19587,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1232.091562701131</v>
+        <v>1304.648695337348</v>
       </c>
       <c r="AB7" t="n">
-        <v>1685.802032131177</v>
+        <v>1785.077901998826</v>
       </c>
       <c r="AC7" t="n">
-        <v>1524.911452222589</v>
+        <v>1614.712572404628</v>
       </c>
       <c r="AD7" t="n">
-        <v>1232091.562701131</v>
+        <v>1304648.695337348</v>
       </c>
       <c r="AE7" t="n">
-        <v>1685802.032131177</v>
+        <v>1785077.901998826</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.328961271360743e-06</v>
+        <v>2.475754051584683e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.52669270833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1524911.452222589</v>
+        <v>1614712.572404628</v>
       </c>
     </row>
     <row r="8">
@@ -19693,28 +19693,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1195.099170428391</v>
+        <v>1267.485710864016</v>
       </c>
       <c r="AB8" t="n">
-        <v>1635.187409034448</v>
+        <v>1734.22986712725</v>
       </c>
       <c r="AC8" t="n">
-        <v>1479.127417716142</v>
+        <v>1568.71740261553</v>
       </c>
       <c r="AD8" t="n">
-        <v>1195099.170428391</v>
+        <v>1267485.710864017</v>
       </c>
       <c r="AE8" t="n">
-        <v>1635187.409034448</v>
+        <v>1734229.86712725</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.351830585781865e-06</v>
+        <v>2.51835784979551e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.33138020833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1479127.417716142</v>
+        <v>1568717.40261553</v>
       </c>
     </row>
     <row r="9">
@@ -19799,28 +19799,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1162.116188941595</v>
+        <v>1222.580555646994</v>
       </c>
       <c r="AB9" t="n">
-        <v>1590.058638657766</v>
+        <v>1672.788652683689</v>
       </c>
       <c r="AC9" t="n">
-        <v>1438.305673845584</v>
+        <v>1513.140051445177</v>
       </c>
       <c r="AD9" t="n">
-        <v>1162116.188941595</v>
+        <v>1222580.555646994</v>
       </c>
       <c r="AE9" t="n">
-        <v>1590058.638657766</v>
+        <v>1672788.652683689</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.371594190837155e-06</v>
+        <v>2.555175947014742e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.1669921875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1438305.673845584</v>
+        <v>1513140.051445177</v>
       </c>
     </row>
     <row r="10">
@@ -19905,28 +19905,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1148.558715054034</v>
+        <v>1209.023081759433</v>
       </c>
       <c r="AB10" t="n">
-        <v>1571.50870477127</v>
+        <v>1654.238718797193</v>
       </c>
       <c r="AC10" t="n">
-        <v>1421.526119614219</v>
+        <v>1496.360497213812</v>
       </c>
       <c r="AD10" t="n">
-        <v>1148558.715054034</v>
+        <v>1209023.081759433</v>
       </c>
       <c r="AE10" t="n">
-        <v>1571508.70477127</v>
+        <v>1654238.718797193</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.378276171593944e-06</v>
+        <v>2.567623970360292e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.11328125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1421526.119614219</v>
+        <v>1496360.497213812</v>
       </c>
     </row>
     <row r="11">
@@ -20011,28 +20011,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1123.262295284909</v>
+        <v>1183.726661990308</v>
       </c>
       <c r="AB11" t="n">
-        <v>1536.897027243877</v>
+        <v>1619.6270412698</v>
       </c>
       <c r="AC11" t="n">
-        <v>1390.217732012246</v>
+        <v>1465.052109611838</v>
       </c>
       <c r="AD11" t="n">
-        <v>1123262.295284909</v>
+        <v>1183726.661990308</v>
       </c>
       <c r="AE11" t="n">
-        <v>1536897.027243877</v>
+        <v>1619627.0412698</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.392393032347723e-06</v>
+        <v>2.593922611231173e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.0009765625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1390217.732012246</v>
+        <v>1465052.109611838</v>
       </c>
     </row>
     <row r="12">
@@ -20117,28 +20117,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1094.061568751969</v>
+        <v>1166.533360533615</v>
       </c>
       <c r="AB12" t="n">
-        <v>1496.943304956374</v>
+        <v>1596.102407701825</v>
       </c>
       <c r="AC12" t="n">
-        <v>1354.07713690446</v>
+        <v>1443.772634054561</v>
       </c>
       <c r="AD12" t="n">
-        <v>1094061.568751969</v>
+        <v>1166533.360533615</v>
       </c>
       <c r="AE12" t="n">
-        <v>1496943.304956374</v>
+        <v>1596102.407701825</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.400204361964814e-06</v>
+        <v>2.608474525846394e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.93912760416667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1354077.13690446</v>
+        <v>1443772.634054561</v>
       </c>
     </row>
     <row r="13">
@@ -20223,28 +20223,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1076.845805103863</v>
+        <v>1149.317596885509</v>
       </c>
       <c r="AB13" t="n">
-        <v>1473.387937627145</v>
+        <v>1572.547040372598</v>
       </c>
       <c r="AC13" t="n">
-        <v>1332.769860772969</v>
+        <v>1422.465357923069</v>
       </c>
       <c r="AD13" t="n">
-        <v>1076845.805103863</v>
+        <v>1149317.596885509</v>
       </c>
       <c r="AE13" t="n">
-        <v>1473387.937627146</v>
+        <v>1572547.040372598</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.408015691581905e-06</v>
+        <v>2.623026440461614e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.87890625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1332769.860772969</v>
+        <v>1422465.357923069</v>
       </c>
     </row>
     <row r="14">
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1062.887575091316</v>
+        <v>1135.359366872961</v>
       </c>
       <c r="AB14" t="n">
-        <v>1454.28967153033</v>
+        <v>1553.448774275782</v>
       </c>
       <c r="AC14" t="n">
-        <v>1315.494306387848</v>
+        <v>1405.189803537949</v>
       </c>
       <c r="AD14" t="n">
-        <v>1062887.575091315</v>
+        <v>1135359.366872961</v>
       </c>
       <c r="AE14" t="n">
-        <v>1454289.67153033</v>
+        <v>1553448.774275782</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.414415335123618e-06</v>
+        <v>2.634948490989746e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.830078125</v>
       </c>
       <c r="AH14" t="n">
-        <v>1315494.306387848</v>
+        <v>1405189.803537949</v>
       </c>
     </row>
     <row r="15">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1044.04699776912</v>
+        <v>1116.518789550766</v>
       </c>
       <c r="AB15" t="n">
-        <v>1428.511162450494</v>
+        <v>1527.670265195946</v>
       </c>
       <c r="AC15" t="n">
-        <v>1292.176062034227</v>
+        <v>1381.871559184327</v>
       </c>
       <c r="AD15" t="n">
-        <v>1044046.99776912</v>
+        <v>1116518.789550766</v>
       </c>
       <c r="AE15" t="n">
-        <v>1428511.162450494</v>
+        <v>1527670.265195946</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.421756102715583e-06</v>
+        <v>2.648623784242604e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.77473958333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1292176.062034227</v>
+        <v>1381871.559184327</v>
       </c>
     </row>
     <row r="16">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1024.618247845757</v>
+        <v>1097.090039627402</v>
       </c>
       <c r="AB16" t="n">
-        <v>1401.927889669395</v>
+        <v>1501.086992414846</v>
       </c>
       <c r="AC16" t="n">
-        <v>1268.129859497498</v>
+        <v>1357.825356647598</v>
       </c>
       <c r="AD16" t="n">
-        <v>1024618.247845757</v>
+        <v>1097090.039627402</v>
       </c>
       <c r="AE16" t="n">
-        <v>1401927.889669395</v>
+        <v>1501086.992414847</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.430696781192976e-06</v>
+        <v>2.665279590127495e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.70638020833333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1268129.859497498</v>
+        <v>1357825.356647599</v>
       </c>
     </row>
     <row r="17">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1016.725120868551</v>
+        <v>1089.196912650197</v>
       </c>
       <c r="AB17" t="n">
-        <v>1391.128165118996</v>
+        <v>1490.287267864448</v>
       </c>
       <c r="AC17" t="n">
-        <v>1258.360845500681</v>
+        <v>1348.056342650781</v>
       </c>
       <c r="AD17" t="n">
-        <v>1016725.120868551</v>
+        <v>1089196.912650197</v>
       </c>
       <c r="AE17" t="n">
-        <v>1391128.165118996</v>
+        <v>1490287.267864448</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.428532195877397e-06</v>
+        <v>2.661247131860627e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.72265625</v>
       </c>
       <c r="AH17" t="n">
-        <v>1258360.845500681</v>
+        <v>1348056.342650781</v>
       </c>
     </row>
     <row r="18">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1003.266032913636</v>
+        <v>1075.737824695281</v>
       </c>
       <c r="AB18" t="n">
-        <v>1372.712847206026</v>
+        <v>1471.871949951478</v>
       </c>
       <c r="AC18" t="n">
-        <v>1241.703059683264</v>
+        <v>1331.398556833364</v>
       </c>
       <c r="AD18" t="n">
-        <v>1003266.032913635</v>
+        <v>1075737.824695281</v>
       </c>
       <c r="AE18" t="n">
-        <v>1372712.847206026</v>
+        <v>1471871.949951478</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.433708378153782e-06</v>
+        <v>2.670889966846617e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.68359375</v>
       </c>
       <c r="AH18" t="n">
-        <v>1241703.059683264</v>
+        <v>1331398.556833364</v>
       </c>
     </row>
     <row r="19">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>990.9858078312486</v>
+        <v>1063.457599612894</v>
       </c>
       <c r="AB19" t="n">
-        <v>1355.91050148301</v>
+        <v>1455.069604228461</v>
       </c>
       <c r="AC19" t="n">
-        <v>1226.504306253811</v>
+        <v>1316.199803403912</v>
       </c>
       <c r="AD19" t="n">
-        <v>990985.8078312486</v>
+        <v>1063457.599612894</v>
       </c>
       <c r="AE19" t="n">
-        <v>1355910.501483009</v>
+        <v>1455069.604228461</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.436814087519614e-06</v>
+        <v>2.67667566783821e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.66080729166667</v>
       </c>
       <c r="AH19" t="n">
-        <v>1226504.306253811</v>
+        <v>1316199.803403912</v>
       </c>
     </row>
     <row r="20">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>981.6267418095161</v>
+        <v>1054.098533591162</v>
       </c>
       <c r="AB20" t="n">
-        <v>1343.105014459223</v>
+        <v>1442.264117204675</v>
       </c>
       <c r="AC20" t="n">
-        <v>1214.920956938961</v>
+        <v>1304.616454089062</v>
       </c>
       <c r="AD20" t="n">
-        <v>981626.7418095161</v>
+        <v>1054098.533591162</v>
       </c>
       <c r="AE20" t="n">
-        <v>1343105.014459223</v>
+        <v>1442264.117204675</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.438225773594992e-06</v>
+        <v>2.679305531925298e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.65104166666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>1214920.956938961</v>
+        <v>1304616.454089062</v>
       </c>
     </row>
     <row r="21">
@@ -21071,28 +21071,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>979.2547132279396</v>
+        <v>1051.726505009585</v>
       </c>
       <c r="AB21" t="n">
-        <v>1339.859500307394</v>
+        <v>1439.018603052846</v>
       </c>
       <c r="AC21" t="n">
-        <v>1211.985190102675</v>
+        <v>1301.680687252776</v>
       </c>
       <c r="AD21" t="n">
-        <v>979254.7132279397</v>
+        <v>1051726.505009585</v>
       </c>
       <c r="AE21" t="n">
-        <v>1339859.500307394</v>
+        <v>1439018.603052846</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.44001390929047e-06</v>
+        <v>2.682636693102276e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.63639322916667</v>
       </c>
       <c r="AH21" t="n">
-        <v>1211985.190102675</v>
+        <v>1301680.687252776</v>
       </c>
     </row>
     <row r="22">
@@ -21177,28 +21177,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>981.9944370779226</v>
+        <v>1054.466228859568</v>
       </c>
       <c r="AB22" t="n">
-        <v>1343.608111347027</v>
+        <v>1442.767214092479</v>
       </c>
       <c r="AC22" t="n">
-        <v>1215.376038965894</v>
+        <v>1305.071536115995</v>
       </c>
       <c r="AD22" t="n">
-        <v>981994.4370779226</v>
+        <v>1054466.228859568</v>
       </c>
       <c r="AE22" t="n">
-        <v>1343608.111347027</v>
+        <v>1442767.214092479</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.440108021695495e-06</v>
+        <v>2.682812017374749e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.63639322916667</v>
       </c>
       <c r="AH22" t="n">
-        <v>1215376.038965894</v>
+        <v>1305071.536115995</v>
       </c>
     </row>
     <row r="23">
@@ -21283,28 +21283,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>986.1900894814978</v>
+        <v>1058.661881263143</v>
       </c>
       <c r="AB23" t="n">
-        <v>1349.348788064719</v>
+        <v>1448.50789081017</v>
       </c>
       <c r="AC23" t="n">
-        <v>1220.56883355474</v>
+        <v>1310.26433070484</v>
       </c>
       <c r="AD23" t="n">
-        <v>986190.0894814978</v>
+        <v>1058661.881263143</v>
       </c>
       <c r="AE23" t="n">
-        <v>1349348.788064719</v>
+        <v>1448507.89081017</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.44001390929047e-06</v>
+        <v>2.682636693102276e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10.63802083333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>1220568.83355474</v>
+        <v>1310264.33070484</v>
       </c>
     </row>
   </sheetData>
@@ -21580,28 +21580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1758.445444020569</v>
+        <v>1847.324060587421</v>
       </c>
       <c r="AB2" t="n">
-        <v>2405.982633646813</v>
+        <v>2527.590277881409</v>
       </c>
       <c r="AC2" t="n">
-        <v>2176.359027909395</v>
+        <v>2286.360609255642</v>
       </c>
       <c r="AD2" t="n">
-        <v>1758445.444020569</v>
+        <v>1847324.060587421</v>
       </c>
       <c r="AE2" t="n">
-        <v>2405982.633646813</v>
+        <v>2527590.277881409</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.010312488948083e-06</v>
+        <v>2.025168711783892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.40299479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2176359.027909395</v>
+        <v>2286360.609255642</v>
       </c>
     </row>
     <row r="3">
@@ -21686,28 +21686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1137.043291592358</v>
+        <v>1214.80133516155</v>
       </c>
       <c r="AB3" t="n">
-        <v>1555.752794366377</v>
+        <v>1662.144780020518</v>
       </c>
       <c r="AC3" t="n">
-        <v>1407.27393118481</v>
+        <v>1503.51201505021</v>
       </c>
       <c r="AD3" t="n">
-        <v>1137043.291592358</v>
+        <v>1214801.33516155</v>
       </c>
       <c r="AE3" t="n">
-        <v>1555752.794366376</v>
+        <v>1662144.780020518</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.305373014290373e-06</v>
+        <v>2.616616754386907e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.6953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1407273.93118481</v>
+        <v>1503512.01505021</v>
       </c>
     </row>
     <row r="4">
@@ -21792,28 +21792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>989.2976984062088</v>
+        <v>1056.020599340863</v>
       </c>
       <c r="AB4" t="n">
-        <v>1353.600755693539</v>
+        <v>1444.893972358972</v>
       </c>
       <c r="AC4" t="n">
-        <v>1224.414999360739</v>
+        <v>1306.995319558458</v>
       </c>
       <c r="AD4" t="n">
-        <v>989297.6984062089</v>
+        <v>1056020.599340863</v>
       </c>
       <c r="AE4" t="n">
-        <v>1353600.755693539</v>
+        <v>1444893.972358972</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.409937251532103e-06</v>
+        <v>2.826215491361819e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.7529296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1224414.999360739</v>
+        <v>1306995.319558458</v>
       </c>
     </row>
     <row r="5">
@@ -21898,28 +21898,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>921.4709900020134</v>
+        <v>988.0232987360755</v>
       </c>
       <c r="AB5" t="n">
-        <v>1260.79726095173</v>
+        <v>1351.857065842316</v>
       </c>
       <c r="AC5" t="n">
-        <v>1140.468539906565</v>
+        <v>1222.837724821633</v>
       </c>
       <c r="AD5" t="n">
-        <v>921470.9900020134</v>
+        <v>988023.2987360755</v>
       </c>
       <c r="AE5" t="n">
-        <v>1260797.26095173</v>
+        <v>1351857.065842316</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.464001136610348e-06</v>
+        <v>2.934586406000259e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.31998697916667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1140468.539906565</v>
+        <v>1222837.724821633</v>
       </c>
     </row>
     <row r="6">
@@ -22004,28 +22004,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>875.5552744512437</v>
+        <v>931.15778140534</v>
       </c>
       <c r="AB6" t="n">
-        <v>1197.97335327676</v>
+        <v>1274.051156300837</v>
       </c>
       <c r="AC6" t="n">
-        <v>1083.640457806187</v>
+        <v>1152.457502085513</v>
       </c>
       <c r="AD6" t="n">
-        <v>875555.2744512437</v>
+        <v>931157.7814053399</v>
       </c>
       <c r="AE6" t="n">
-        <v>1197973.35327676</v>
+        <v>1274051.156300837</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.497905606913655e-06</v>
+        <v>3.002547827044706e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.06282552083333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1083640.457806187</v>
+        <v>1152457.502085513</v>
       </c>
     </row>
     <row r="7">
@@ -22110,28 +22110,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>836.4375182386501</v>
+        <v>903.0750783187328</v>
       </c>
       <c r="AB7" t="n">
-        <v>1144.450713473083</v>
+        <v>1235.627163016319</v>
       </c>
       <c r="AC7" t="n">
-        <v>1035.225943625876</v>
+        <v>1117.700640791656</v>
       </c>
       <c r="AD7" t="n">
-        <v>836437.5182386502</v>
+        <v>903075.0783187328</v>
       </c>
       <c r="AE7" t="n">
-        <v>1144450.713473083</v>
+        <v>1235627.163016319</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.513076075607927e-06</v>
+        <v>3.032956991415944e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.9521484375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1035225.943625876</v>
+        <v>1117700.640791656</v>
       </c>
     </row>
     <row r="8">
@@ -22216,28 +22216,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>800.1360800312823</v>
+        <v>866.7736401113649</v>
       </c>
       <c r="AB8" t="n">
-        <v>1094.781484211337</v>
+        <v>1185.957933754574</v>
       </c>
       <c r="AC8" t="n">
-        <v>990.2970758936701</v>
+        <v>1072.77177305945</v>
       </c>
       <c r="AD8" t="n">
-        <v>800136.0800312823</v>
+        <v>866773.6401113649</v>
       </c>
       <c r="AE8" t="n">
-        <v>1094781.484211337</v>
+        <v>1185957.933754574</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.534762718774907e-06</v>
+        <v>3.076427810282211e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.79752604166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>990297.0758936701</v>
+        <v>1072771.77305945</v>
       </c>
     </row>
     <row r="9">
@@ -22322,28 +22322,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>775.5926207684615</v>
+        <v>842.2301808485441</v>
       </c>
       <c r="AB9" t="n">
-        <v>1061.200040466942</v>
+        <v>1152.376490010178</v>
       </c>
       <c r="AC9" t="n">
-        <v>959.9205980083877</v>
+        <v>1042.395295174168</v>
       </c>
       <c r="AD9" t="n">
-        <v>775592.6207684615</v>
+        <v>842230.1808485441</v>
       </c>
       <c r="AE9" t="n">
-        <v>1061200.040466942</v>
+        <v>1152376.490010178</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.545758763197601e-06</v>
+        <v>3.098469352242572e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.72102864583333</v>
       </c>
       <c r="AH9" t="n">
-        <v>959920.5980083877</v>
+        <v>1042395.295174168</v>
       </c>
     </row>
     <row r="10">
@@ -22428,28 +22428,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>769.5497499245937</v>
+        <v>836.1873100046764</v>
       </c>
       <c r="AB10" t="n">
-        <v>1052.931917985716</v>
+        <v>1144.108367528952</v>
       </c>
       <c r="AC10" t="n">
-        <v>952.4415735323869</v>
+        <v>1034.916270698167</v>
       </c>
       <c r="AD10" t="n">
-        <v>769549.7499245937</v>
+        <v>836187.3100046765</v>
       </c>
       <c r="AE10" t="n">
-        <v>1052931.917985716</v>
+        <v>1144108.367528952</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.548405959077139e-06</v>
+        <v>3.103775649381177e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.70149739583333</v>
       </c>
       <c r="AH10" t="n">
-        <v>952441.5735323869</v>
+        <v>1034916.270698167</v>
       </c>
     </row>
     <row r="11">
@@ -22534,28 +22534,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>774.2781537999703</v>
+        <v>840.915713880053</v>
       </c>
       <c r="AB11" t="n">
-        <v>1059.401528770463</v>
+        <v>1150.577978313699</v>
       </c>
       <c r="AC11" t="n">
-        <v>958.2937337439931</v>
+        <v>1040.768430909774</v>
       </c>
       <c r="AD11" t="n">
-        <v>774278.1537999703</v>
+        <v>840915.713880053</v>
       </c>
       <c r="AE11" t="n">
-        <v>1059401.528770463</v>
+        <v>1150577.978313699</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.547998698172595e-06</v>
+        <v>3.102959295975238e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.70475260416667</v>
       </c>
       <c r="AH11" t="n">
-        <v>958293.7337439931</v>
+        <v>1040768.430909774</v>
       </c>
     </row>
   </sheetData>
@@ -22831,28 +22831,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1268.711475240319</v>
+        <v>1353.788126440724</v>
       </c>
       <c r="AB2" t="n">
-        <v>1735.907012023816</v>
+        <v>1852.312639513165</v>
       </c>
       <c r="AC2" t="n">
-        <v>1570.234483157056</v>
+        <v>1675.530520935145</v>
       </c>
       <c r="AD2" t="n">
-        <v>1268711.47524032</v>
+        <v>1353788.126440724</v>
       </c>
       <c r="AE2" t="n">
-        <v>1735907.012023816</v>
+        <v>1852312.639513165</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.18148294709445e-06</v>
+        <v>2.471736212803997e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1570234.483157056</v>
+        <v>1675530.520935145</v>
       </c>
     </row>
     <row r="3">
@@ -22937,28 +22937,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>904.591943454257</v>
+        <v>968.3781861494687</v>
       </c>
       <c r="AB3" t="n">
-        <v>1237.70260481411</v>
+        <v>1324.977756120121</v>
       </c>
       <c r="AC3" t="n">
-        <v>1119.578005337167</v>
+        <v>1198.523738693976</v>
       </c>
       <c r="AD3" t="n">
-        <v>904591.943454257</v>
+        <v>968378.1861494686</v>
       </c>
       <c r="AE3" t="n">
-        <v>1237702.60481411</v>
+        <v>1324977.756120121</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.436127521239313e-06</v>
+        <v>3.004468586856277e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.01985677083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1119578.005337167</v>
+        <v>1198523.738693976</v>
       </c>
     </row>
     <row r="4">
@@ -23043,28 +23043,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>797.3702263735065</v>
+        <v>861.0711282141465</v>
       </c>
       <c r="AB4" t="n">
-        <v>1090.997121215917</v>
+        <v>1178.15550539973</v>
       </c>
       <c r="AC4" t="n">
-        <v>986.873887191146</v>
+        <v>1065.713997516016</v>
       </c>
       <c r="AD4" t="n">
-        <v>797370.2263735065</v>
+        <v>861071.1282141465</v>
       </c>
       <c r="AE4" t="n">
-        <v>1090997.121215917</v>
+        <v>1178155.50539973</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.524791771128986e-06</v>
+        <v>3.189959742502968e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.32161458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>986873.8871911459</v>
+        <v>1065713.997516016</v>
       </c>
     </row>
     <row r="5">
@@ -23149,28 +23149,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>730.5356553930119</v>
+        <v>794.3218085796724</v>
       </c>
       <c r="AB5" t="n">
-        <v>999.5511126672295</v>
+        <v>1086.826141503692</v>
       </c>
       <c r="AC5" t="n">
-        <v>904.1553573530661</v>
+        <v>983.1009799286486</v>
       </c>
       <c r="AD5" t="n">
-        <v>730535.6553930119</v>
+        <v>794321.8085796724</v>
       </c>
       <c r="AE5" t="n">
-        <v>999551.1126672295</v>
+        <v>1086826.141503692</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.571245050377404e-06</v>
+        <v>3.287142907781976e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.986328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>904155.3573530661</v>
+        <v>983100.9799286486</v>
       </c>
     </row>
     <row r="6">
@@ -23255,28 +23255,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>691.5269521312895</v>
+        <v>755.3131053179502</v>
       </c>
       <c r="AB6" t="n">
-        <v>946.1776839220114</v>
+        <v>1033.452712758474</v>
       </c>
       <c r="AC6" t="n">
-        <v>855.8758137372138</v>
+        <v>934.8214363127963</v>
       </c>
       <c r="AD6" t="n">
-        <v>691526.9521312895</v>
+        <v>755313.1053179502</v>
       </c>
       <c r="AE6" t="n">
-        <v>946177.6839220114</v>
+        <v>1033452.712758474</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.595426209438224e-06</v>
+        <v>3.337731404776528e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.81868489583333</v>
       </c>
       <c r="AH6" t="n">
-        <v>855875.8137372137</v>
+        <v>934821.4363127963</v>
       </c>
     </row>
     <row r="7">
@@ -23361,28 +23361,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>686.1857966710311</v>
+        <v>749.9719498576918</v>
       </c>
       <c r="AB7" t="n">
-        <v>938.869679386137</v>
+        <v>1026.1447082226</v>
       </c>
       <c r="AC7" t="n">
-        <v>849.2652748973945</v>
+        <v>928.2108974729772</v>
       </c>
       <c r="AD7" t="n">
-        <v>686185.796671031</v>
+        <v>749971.9498576918</v>
       </c>
       <c r="AE7" t="n">
-        <v>938869.6793861371</v>
+        <v>1026144.708222599</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.600516979766818e-06</v>
+        <v>3.348381614670119e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.78450520833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>849265.2748973946</v>
+        <v>928210.8974729772</v>
       </c>
     </row>
     <row r="8">
@@ -23467,28 +23467,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>690.4482315274095</v>
+        <v>754.2343847140701</v>
       </c>
       <c r="AB8" t="n">
-        <v>944.7017308019881</v>
+        <v>1031.976759638451</v>
       </c>
       <c r="AC8" t="n">
-        <v>854.5407235114525</v>
+        <v>933.4863460870349</v>
       </c>
       <c r="AD8" t="n">
-        <v>690448.2315274095</v>
+        <v>754234.3847140701</v>
       </c>
       <c r="AE8" t="n">
-        <v>944701.7308019882</v>
+        <v>1031976.759638451</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.600623037481997e-06</v>
+        <v>3.348603494042902e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.78450520833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>854540.7235114524</v>
+        <v>933486.3460870349</v>
       </c>
     </row>
   </sheetData>
@@ -44057,28 +44057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>982.3134242086209</v>
+        <v>1054.171120628879</v>
       </c>
       <c r="AB2" t="n">
-        <v>1344.044563611968</v>
+        <v>1442.363433991993</v>
       </c>
       <c r="AC2" t="n">
-        <v>1215.770836839233</v>
+        <v>1304.706292221591</v>
       </c>
       <c r="AD2" t="n">
-        <v>982313.4242086209</v>
+        <v>1054171.120628879</v>
       </c>
       <c r="AE2" t="n">
-        <v>1344044.563611967</v>
+        <v>1442363.433991993</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.321149776858077e-06</v>
+        <v>2.871989065267986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1215770.836839233</v>
+        <v>1304706.292221591</v>
       </c>
     </row>
     <row r="3">
@@ -44163,28 +44163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>731.1648006827223</v>
+        <v>792.7571119000864</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000.411937008543</v>
+        <v>1084.685254477137</v>
       </c>
       <c r="AC3" t="n">
-        <v>904.934025827419</v>
+        <v>981.164416155154</v>
       </c>
       <c r="AD3" t="n">
-        <v>731164.8006827224</v>
+        <v>792757.1119000864</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000411.937008543</v>
+        <v>1084685.254477137</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.544303625565047e-06</v>
+        <v>3.357093346845389e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>904934.025827419</v>
+        <v>981164.416155154</v>
       </c>
     </row>
     <row r="4">
@@ -44269,28 +44269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>651.6685577687497</v>
+        <v>702.9955732917705</v>
       </c>
       <c r="AB4" t="n">
-        <v>891.6416703269289</v>
+        <v>961.8695573536384</v>
       </c>
       <c r="AC4" t="n">
-        <v>806.5446407378701</v>
+        <v>870.0700767922091</v>
       </c>
       <c r="AD4" t="n">
-        <v>651668.5577687497</v>
+        <v>702995.5732917705</v>
       </c>
       <c r="AE4" t="n">
-        <v>891641.6703269288</v>
+        <v>961869.5573536383</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.621431037384614e-06</v>
+        <v>3.524757216043479e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.01236979166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>806544.64073787</v>
+        <v>870070.0767922091</v>
       </c>
     </row>
     <row r="5">
@@ -44375,28 +44375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>622.2904554244972</v>
+        <v>683.7974257872894</v>
       </c>
       <c r="AB5" t="n">
-        <v>851.4452546291191</v>
+        <v>935.6018049755149</v>
       </c>
       <c r="AC5" t="n">
-        <v>770.1845145382355</v>
+        <v>846.3092818340317</v>
       </c>
       <c r="AD5" t="n">
-        <v>622290.4554244971</v>
+        <v>683797.4257872894</v>
       </c>
       <c r="AE5" t="n">
-        <v>851445.2546291191</v>
+        <v>935601.8049755149</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.636242133537732e-06</v>
+        <v>3.556954402873837e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.9130859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>770184.5145382355</v>
+        <v>846309.2818340317</v>
       </c>
     </row>
     <row r="6">
@@ -44481,28 +44481,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>626.8771058694374</v>
+        <v>688.3840762322299</v>
       </c>
       <c r="AB6" t="n">
-        <v>857.720912116623</v>
+        <v>941.8774624630189</v>
       </c>
       <c r="AC6" t="n">
-        <v>775.8612320830728</v>
+        <v>851.9859993788689</v>
       </c>
       <c r="AD6" t="n">
-        <v>626877.1058694375</v>
+        <v>688384.0762322298</v>
       </c>
       <c r="AE6" t="n">
-        <v>857720.912116623</v>
+        <v>941877.462463019</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.636571269007801e-06</v>
+        <v>3.557669895914512e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.91145833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>775861.2320830728</v>
+        <v>851985.9993788688</v>
       </c>
     </row>
   </sheetData>
@@ -44778,28 +44778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>542.0537992921925</v>
+        <v>599.1280633384359</v>
       </c>
       <c r="AB2" t="n">
-        <v>741.6619219174572</v>
+        <v>819.7534479243499</v>
       </c>
       <c r="AC2" t="n">
-        <v>670.8787490186994</v>
+        <v>741.5173293856395</v>
       </c>
       <c r="AD2" t="n">
-        <v>542053.7992921924</v>
+        <v>599128.063338436</v>
       </c>
       <c r="AE2" t="n">
-        <v>741661.9219174572</v>
+        <v>819753.4479243499</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.623595657460537e-06</v>
+        <v>3.861766049128847e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.80501302083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>670878.7490186994</v>
+        <v>741517.3293856395</v>
       </c>
     </row>
     <row r="3">
@@ -44884,28 +44884,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>511.9920811290468</v>
+        <v>568.895752974698</v>
       </c>
       <c r="AB3" t="n">
-        <v>700.5301528972366</v>
+        <v>778.3882671292823</v>
       </c>
       <c r="AC3" t="n">
-        <v>633.6725383049683</v>
+        <v>704.0999833892572</v>
       </c>
       <c r="AD3" t="n">
-        <v>511992.0811290468</v>
+        <v>568895.752974698</v>
       </c>
       <c r="AE3" t="n">
-        <v>700530.1528972365</v>
+        <v>778388.2671292824</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.673876724020999e-06</v>
+        <v>3.981360921697604e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.4501953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>633672.5383049683</v>
+        <v>704099.9833892572</v>
       </c>
     </row>
   </sheetData>
@@ -45181,28 +45181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2351.603176507909</v>
+        <v>2455.22723187227</v>
       </c>
       <c r="AB2" t="n">
-        <v>3217.567211508469</v>
+        <v>3359.350215628674</v>
       </c>
       <c r="AC2" t="n">
-        <v>2910.487112725923</v>
+        <v>3038.738545926586</v>
       </c>
       <c r="AD2" t="n">
-        <v>2351603.176507909</v>
+        <v>2455227.23187227</v>
       </c>
       <c r="AE2" t="n">
-        <v>3217567.211508469</v>
+        <v>3359350.215628674</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.687608327126983e-07</v>
+        <v>1.685898328622201e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.44889322916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2910487.112725923</v>
+        <v>3038738.545926586</v>
       </c>
     </row>
     <row r="3">
@@ -45287,28 +45287,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1385.982572782134</v>
+        <v>1466.474774689617</v>
       </c>
       <c r="AB3" t="n">
-        <v>1896.362501316213</v>
+        <v>2006.495483031357</v>
       </c>
       <c r="AC3" t="n">
-        <v>1715.37632575208</v>
+        <v>1814.998370264941</v>
       </c>
       <c r="AD3" t="n">
-        <v>1385982.572782134</v>
+        <v>1466474.774689617</v>
       </c>
       <c r="AE3" t="n">
-        <v>1896362.501316213</v>
+        <v>2006495.483031357</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.195210862234643e-06</v>
+        <v>2.319400137665796e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.40983072916667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1715376.32575208</v>
+        <v>1814998.370264941</v>
       </c>
     </row>
     <row r="4">
@@ -45393,28 +45393,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1184.202769600439</v>
+        <v>1253.25705606134</v>
       </c>
       <c r="AB4" t="n">
-        <v>1620.278472706366</v>
+        <v>1714.761593902281</v>
       </c>
       <c r="AC4" t="n">
-        <v>1465.641369346389</v>
+        <v>1551.10715406326</v>
       </c>
       <c r="AD4" t="n">
-        <v>1184202.769600439</v>
+        <v>1253257.05606134</v>
       </c>
       <c r="AE4" t="n">
-        <v>1620278.472706366</v>
+        <v>1714761.593902281</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.314564538186558e-06</v>
+        <v>2.551015278709789e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.1923828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1465641.369346389</v>
+        <v>1551107.15406326</v>
       </c>
     </row>
     <row r="5">
@@ -45499,28 +45499,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1086.732629944793</v>
+        <v>1155.872167751714</v>
       </c>
       <c r="AB5" t="n">
-        <v>1486.915527550434</v>
+        <v>1581.515293398998</v>
       </c>
       <c r="AC5" t="n">
-        <v>1345.00639650007</v>
+        <v>1430.577693467652</v>
       </c>
       <c r="AD5" t="n">
-        <v>1086732.629944793</v>
+        <v>1155872.167751714</v>
       </c>
       <c r="AE5" t="n">
-        <v>1486915.527550434</v>
+        <v>1581515.293398998</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.375718525617365e-06</v>
+        <v>2.669689373254608e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.650390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1345006.396500069</v>
+        <v>1430577.693467652</v>
       </c>
     </row>
     <row r="6">
@@ -45605,28 +45605,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1032.123845620685</v>
+        <v>1101.092791227014</v>
       </c>
       <c r="AB6" t="n">
-        <v>1412.197379668655</v>
+        <v>1506.563733742372</v>
       </c>
       <c r="AC6" t="n">
-        <v>1277.419243784549</v>
+        <v>1362.77940546948</v>
       </c>
       <c r="AD6" t="n">
-        <v>1032123.845620685</v>
+        <v>1101092.791227014</v>
       </c>
       <c r="AE6" t="n">
-        <v>1412197.379668655</v>
+        <v>1506563.733742372</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.414616794595093e-06</v>
+        <v>2.745174505855579e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.33138020833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1277419.243784549</v>
+        <v>1362779.40546948</v>
       </c>
     </row>
     <row r="7">
@@ -45711,28 +45711,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>993.4208343413696</v>
+        <v>1051.037205355689</v>
       </c>
       <c r="AB7" t="n">
-        <v>1359.242212179945</v>
+        <v>1438.07547285663</v>
       </c>
       <c r="AC7" t="n">
-        <v>1229.518043157917</v>
+        <v>1300.827568078795</v>
       </c>
       <c r="AD7" t="n">
-        <v>993420.8343413697</v>
+        <v>1051037.205355689</v>
       </c>
       <c r="AE7" t="n">
-        <v>1359242.212179945</v>
+        <v>1438075.47285663</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.439925288588197e-06</v>
+        <v>2.794287617446591e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.13118489583333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1229518.043157917</v>
+        <v>1300827.568078795</v>
       </c>
     </row>
     <row r="8">
@@ -45817,28 +45817,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>975.9227903145769</v>
+        <v>1033.539161328896</v>
       </c>
       <c r="AB8" t="n">
-        <v>1335.300616383267</v>
+        <v>1414.133877059952</v>
       </c>
       <c r="AC8" t="n">
-        <v>1207.861399661833</v>
+        <v>1279.170924582711</v>
       </c>
       <c r="AD8" t="n">
-        <v>975922.7903145769</v>
+        <v>1033539.161328896</v>
       </c>
       <c r="AE8" t="n">
-        <v>1335300.616383267</v>
+        <v>1414133.877059952</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.448098848905036e-06</v>
+        <v>2.810149050372871e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.06770833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1207861.399661833</v>
+        <v>1279170.924582711</v>
       </c>
     </row>
     <row r="9">
@@ -45923,28 +45923,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>927.963720586212</v>
+        <v>997.0179175385618</v>
       </c>
       <c r="AB9" t="n">
-        <v>1269.680901376087</v>
+        <v>1364.163900102454</v>
       </c>
       <c r="AC9" t="n">
-        <v>1148.50433815709</v>
+        <v>1233.970012092734</v>
       </c>
       <c r="AD9" t="n">
-        <v>927963.720586212</v>
+        <v>997017.9175385619</v>
       </c>
       <c r="AE9" t="n">
-        <v>1269680.901376087</v>
+        <v>1364163.900102454</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.470453043988439e-06</v>
+        <v>2.85352911391824e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.90006510416667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1148504.33815709</v>
+        <v>1233970.012092734</v>
       </c>
     </row>
     <row r="10">
@@ -46029,28 +46029,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>903.6690890305372</v>
+        <v>972.723285982887</v>
       </c>
       <c r="AB10" t="n">
-        <v>1236.439914678113</v>
+        <v>1330.92291340448</v>
       </c>
       <c r="AC10" t="n">
-        <v>1118.435824575553</v>
+        <v>1203.901498511196</v>
       </c>
       <c r="AD10" t="n">
-        <v>903669.0890305372</v>
+        <v>972723.285982887</v>
       </c>
       <c r="AE10" t="n">
-        <v>1236439.914678113</v>
+        <v>1330922.91340448</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.48305805266983e-06</v>
+        <v>2.877990118912984e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.80729166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1118435.824575553</v>
+        <v>1203901.498511196</v>
       </c>
     </row>
     <row r="11">
@@ -46135,28 +46135,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>880.8647014462369</v>
+        <v>949.9188983985867</v>
       </c>
       <c r="AB11" t="n">
-        <v>1205.237945526697</v>
+        <v>1299.720944253064</v>
       </c>
       <c r="AC11" t="n">
-        <v>1090.211727567709</v>
+        <v>1175.677401503353</v>
       </c>
       <c r="AD11" t="n">
-        <v>880864.7014462369</v>
+        <v>949918.8983985868</v>
       </c>
       <c r="AE11" t="n">
-        <v>1205237.945526697</v>
+        <v>1299720.944253064</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.492019426029255e-06</v>
+        <v>2.895380364651436e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.7421875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1090211.72756771</v>
+        <v>1175677.401503353</v>
       </c>
     </row>
     <row r="12">
@@ -46241,28 +46241,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>860.6166004546751</v>
+        <v>929.670797407025</v>
       </c>
       <c r="AB12" t="n">
-        <v>1177.533600466872</v>
+        <v>1272.016599193238</v>
       </c>
       <c r="AC12" t="n">
-        <v>1065.151446317101</v>
+        <v>1150.617120252745</v>
       </c>
       <c r="AD12" t="n">
-        <v>860616.6004546752</v>
+        <v>929670.797407025</v>
       </c>
       <c r="AE12" t="n">
-        <v>1177533.600466872</v>
+        <v>1272016.599193238</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.500488416237065e-06</v>
+        <v>2.911815102382281e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.68196614583333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1065151.446317101</v>
+        <v>1150617.120252745</v>
       </c>
     </row>
     <row r="13">
@@ -46347,28 +46347,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>843.6627156414975</v>
+        <v>912.7169125938474</v>
       </c>
       <c r="AB13" t="n">
-        <v>1154.336547312872</v>
+        <v>1248.819546039238</v>
       </c>
       <c r="AC13" t="n">
-        <v>1044.16828735885</v>
+        <v>1129.633961294494</v>
       </c>
       <c r="AD13" t="n">
-        <v>843662.7156414975</v>
+        <v>912716.9125938474</v>
       </c>
       <c r="AE13" t="n">
-        <v>1154336.547312872</v>
+        <v>1248819.546039238</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.508661976553904e-06</v>
+        <v>2.927676535308561e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.62337239583333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1044168.28735885</v>
+        <v>1129633.961294494</v>
       </c>
     </row>
     <row r="14">
@@ -46453,28 +46453,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>849.3257120942759</v>
+        <v>918.3799090466257</v>
       </c>
       <c r="AB14" t="n">
-        <v>1162.084908893334</v>
+        <v>1256.567907619701</v>
       </c>
       <c r="AC14" t="n">
-        <v>1051.177156184967</v>
+        <v>1136.642830120611</v>
       </c>
       <c r="AD14" t="n">
-        <v>849325.7120942759</v>
+        <v>918379.9090466257</v>
       </c>
       <c r="AE14" t="n">
-        <v>1162084.908893334</v>
+        <v>1256567.907619701</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.503541191777089e-06</v>
+        <v>2.917739252029446e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.66080729166667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1051177.156184967</v>
+        <v>1136642.830120611</v>
       </c>
     </row>
     <row r="15">
@@ -46559,28 +46559,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>853.171294616873</v>
+        <v>922.2254915692229</v>
       </c>
       <c r="AB15" t="n">
-        <v>1167.346604555879</v>
+        <v>1261.829603282245</v>
       </c>
       <c r="AC15" t="n">
-        <v>1055.936682998315</v>
+        <v>1141.402356933958</v>
       </c>
       <c r="AD15" t="n">
-        <v>853171.2946168729</v>
+        <v>922225.4915692229</v>
       </c>
       <c r="AE15" t="n">
-        <v>1167346.604555879</v>
+        <v>1261829.603282245</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.503639668407412e-06</v>
+        <v>2.917930353630967e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.6591796875</v>
       </c>
       <c r="AH15" t="n">
-        <v>1055936.682998315</v>
+        <v>1141402.356933958</v>
       </c>
     </row>
   </sheetData>
@@ -46856,28 +46856,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3400.120653600785</v>
+        <v>3531.975791346154</v>
       </c>
       <c r="AB2" t="n">
-        <v>4652.195080993435</v>
+        <v>4832.605097494792</v>
       </c>
       <c r="AC2" t="n">
-        <v>4208.196111860051</v>
+        <v>4371.388049593559</v>
       </c>
       <c r="AD2" t="n">
-        <v>3400120.653600785</v>
+        <v>3531975.791346154</v>
       </c>
       <c r="AE2" t="n">
-        <v>4652195.080993435</v>
+        <v>4832605.097494792</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.101957866012783e-07</v>
+        <v>1.332605855220673e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.74641927083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4208196.111860051</v>
+        <v>4371388.049593559</v>
       </c>
     </row>
     <row r="3">
@@ -46962,28 +46962,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1740.22091531503</v>
+        <v>1824.043478897881</v>
       </c>
       <c r="AB3" t="n">
-        <v>2381.047029462432</v>
+        <v>2495.736758947003</v>
       </c>
       <c r="AC3" t="n">
-        <v>2153.803242791032</v>
+        <v>2257.547145461641</v>
       </c>
       <c r="AD3" t="n">
-        <v>1740220.91531503</v>
+        <v>1824043.478897881</v>
       </c>
       <c r="AE3" t="n">
-        <v>2381047.029462432</v>
+        <v>2495736.758947003</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.069374174132791e-06</v>
+        <v>2.006565390497296e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.443359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2153803.242791031</v>
+        <v>2257547.145461641</v>
       </c>
     </row>
     <row r="4">
@@ -47068,28 +47068,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1430.935166129262</v>
+        <v>1514.757640203561</v>
       </c>
       <c r="AB4" t="n">
-        <v>1957.868622702206</v>
+        <v>2072.558229717229</v>
       </c>
       <c r="AC4" t="n">
-        <v>1771.012389237378</v>
+        <v>1874.756181126761</v>
       </c>
       <c r="AD4" t="n">
-        <v>1430935.166129262</v>
+        <v>1514757.640203561</v>
       </c>
       <c r="AE4" t="n">
-        <v>1957868.622702206</v>
+        <v>2072558.229717229</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.205643702401021e-06</v>
+        <v>2.262260474422588e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.81087239583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1771012.389237378</v>
+        <v>1874756.181126761</v>
       </c>
     </row>
     <row r="5">
@@ -47174,28 +47174,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1314.235728976902</v>
+        <v>1386.071461855629</v>
       </c>
       <c r="AB5" t="n">
-        <v>1798.195304374538</v>
+        <v>1896.484123268077</v>
       </c>
       <c r="AC5" t="n">
-        <v>1626.578068307992</v>
+        <v>1715.486340275555</v>
       </c>
       <c r="AD5" t="n">
-        <v>1314235.728976902</v>
+        <v>1386071.461855629</v>
       </c>
       <c r="AE5" t="n">
-        <v>1798195.304374538</v>
+        <v>1896484.123268077</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.274727418681851e-06</v>
+        <v>2.391888622819255e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.11588541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1626578.068307992</v>
+        <v>1715486.340275555</v>
       </c>
     </row>
     <row r="6">
@@ -47280,28 +47280,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1232.207812516697</v>
+        <v>1304.128796741443</v>
       </c>
       <c r="AB6" t="n">
-        <v>1685.961090257413</v>
+        <v>1784.366553803602</v>
       </c>
       <c r="AC6" t="n">
-        <v>1525.055330064497</v>
+        <v>1614.069114282773</v>
       </c>
       <c r="AD6" t="n">
-        <v>1232207.812516697</v>
+        <v>1304128.796741443</v>
       </c>
       <c r="AE6" t="n">
-        <v>1685961.090257413</v>
+        <v>1784366.553803602</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.319043483933427e-06</v>
+        <v>2.475042943287995e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.708984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1525055.330064497</v>
+        <v>1614069.114282773</v>
       </c>
     </row>
     <row r="7">
@@ -47386,28 +47386,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1185.132275368487</v>
+        <v>1256.882667392642</v>
       </c>
       <c r="AB7" t="n">
-        <v>1621.55026350511</v>
+        <v>1719.722315276451</v>
       </c>
       <c r="AC7" t="n">
-        <v>1466.79178221627</v>
+        <v>1555.594431151895</v>
       </c>
       <c r="AD7" t="n">
-        <v>1185132.275368487</v>
+        <v>1256882.667392642</v>
       </c>
       <c r="AE7" t="n">
-        <v>1621550.26350511</v>
+        <v>1719722.315276451</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.349220162198954e-06</v>
+        <v>2.531666227889836e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.44694010416667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1466791.78221627</v>
+        <v>1555594.431151895</v>
       </c>
     </row>
     <row r="8">
@@ -47492,28 +47492,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1148.874155283218</v>
+        <v>1220.624547307372</v>
       </c>
       <c r="AB8" t="n">
-        <v>1571.94030400908</v>
+        <v>1670.112355780421</v>
       </c>
       <c r="AC8" t="n">
-        <v>1421.916527626526</v>
+        <v>1510.719176562151</v>
       </c>
       <c r="AD8" t="n">
-        <v>1148874.155283218</v>
+        <v>1220624.547307373</v>
       </c>
       <c r="AE8" t="n">
-        <v>1571940.30400908</v>
+        <v>1670112.355780422</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.37152053764675e-06</v>
+        <v>2.573510479089309e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.26139322916667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1421916.527626526</v>
+        <v>1510719.176562151</v>
       </c>
     </row>
     <row r="9">
@@ -47598,28 +47598,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1110.431084932891</v>
+        <v>1170.365327962065</v>
       </c>
       <c r="AB9" t="n">
-        <v>1519.340799167196</v>
+        <v>1601.345474591902</v>
       </c>
       <c r="AC9" t="n">
-        <v>1374.337045702883</v>
+        <v>1448.515309999339</v>
       </c>
       <c r="AD9" t="n">
-        <v>1110431.084932891</v>
+        <v>1170365.327962065</v>
       </c>
       <c r="AE9" t="n">
-        <v>1519340.799167196</v>
+        <v>1601345.474591902</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.395813712602646e-06</v>
+        <v>2.619094003800225e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.064453125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1374337.045702883</v>
+        <v>1448515.309999339</v>
       </c>
     </row>
     <row r="10">
@@ -47704,28 +47704,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1102.262662070909</v>
+        <v>1162.196905100082</v>
       </c>
       <c r="AB10" t="n">
-        <v>1508.164402642049</v>
+        <v>1590.169078066754</v>
       </c>
       <c r="AC10" t="n">
-        <v>1364.227308775924</v>
+        <v>1438.405573072381</v>
       </c>
       <c r="AD10" t="n">
-        <v>1102262.662070909</v>
+        <v>1162196.905100083</v>
       </c>
       <c r="AE10" t="n">
-        <v>1508164.402642049</v>
+        <v>1590169.078066754</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.398755464257461e-06</v>
+        <v>2.624613883745687e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1364227.308775924</v>
+        <v>1438405.573072381</v>
       </c>
     </row>
     <row r="11">
@@ -47810,28 +47810,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1068.29932406299</v>
+        <v>1140.134967433165</v>
       </c>
       <c r="AB11" t="n">
-        <v>1461.694265222889</v>
+        <v>1559.98296164688</v>
       </c>
       <c r="AC11" t="n">
-        <v>1322.192216050802</v>
+        <v>1411.100377237139</v>
       </c>
       <c r="AD11" t="n">
-        <v>1068299.32406299</v>
+        <v>1140134.967433165</v>
       </c>
       <c r="AE11" t="n">
-        <v>1461694.265222889</v>
+        <v>1559982.96164688</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.410142890018038e-06</v>
+        <v>2.645981160953929e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.95377604166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1322192.216050802</v>
+        <v>1411100.377237139</v>
       </c>
     </row>
     <row r="12">
@@ -47916,28 +47916,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1048.003596740741</v>
+        <v>1119.839240110916</v>
       </c>
       <c r="AB12" t="n">
-        <v>1433.924755716291</v>
+        <v>1532.213452140282</v>
       </c>
       <c r="AC12" t="n">
-        <v>1297.072989556763</v>
+        <v>1385.981150743099</v>
       </c>
       <c r="AD12" t="n">
-        <v>1048003.596740741</v>
+        <v>1119839.240110916</v>
       </c>
       <c r="AE12" t="n">
-        <v>1433924.755716291</v>
+        <v>1532213.452140282</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.419632411485185e-06</v>
+        <v>2.66378722529413e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.88053385416667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1297072.989556763</v>
+        <v>1385981.150743099</v>
       </c>
     </row>
     <row r="13">
@@ -48022,28 +48022,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1031.328813758865</v>
+        <v>1103.164457129041</v>
       </c>
       <c r="AB13" t="n">
-        <v>1411.109582000983</v>
+        <v>1509.398278424974</v>
       </c>
       <c r="AC13" t="n">
-        <v>1276.435263999546</v>
+        <v>1365.343425185883</v>
       </c>
       <c r="AD13" t="n">
-        <v>1031328.813758865</v>
+        <v>1103164.457129041</v>
       </c>
       <c r="AE13" t="n">
-        <v>1411109.582000983</v>
+        <v>1509398.278424974</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.425990390868173e-06</v>
+        <v>2.675717288402065e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.83170572916667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1276435.263999546</v>
+        <v>1365343.425185883</v>
       </c>
     </row>
     <row r="14">
@@ -48128,28 +48128,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1016.920888772292</v>
+        <v>1088.756532142467</v>
       </c>
       <c r="AB14" t="n">
-        <v>1391.396023401564</v>
+        <v>1489.684719825555</v>
       </c>
       <c r="AC14" t="n">
-        <v>1258.603139764703</v>
+        <v>1347.511300951039</v>
       </c>
       <c r="AD14" t="n">
-        <v>1016920.888772292</v>
+        <v>1088756.532142467</v>
       </c>
       <c r="AE14" t="n">
-        <v>1391396.023401564</v>
+        <v>1489684.719825555</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.432158579821819e-06</v>
+        <v>2.687291230223196e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.78450520833333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1258603.139764702</v>
+        <v>1347511.300951039</v>
       </c>
     </row>
     <row r="15">
@@ -48234,28 +48234,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>999.8294843594242</v>
+        <v>1071.665127729599</v>
       </c>
       <c r="AB15" t="n">
-        <v>1368.010809864332</v>
+        <v>1466.299506288322</v>
       </c>
       <c r="AC15" t="n">
-        <v>1237.44977818611</v>
+        <v>1326.357939372447</v>
       </c>
       <c r="AD15" t="n">
-        <v>999829.4843594242</v>
+        <v>1071665.127729599</v>
       </c>
       <c r="AE15" t="n">
-        <v>1368010.809864332</v>
+        <v>1466299.506288322</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.439370616136851e-06</v>
+        <v>2.700823839121749e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.73079427083333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1237449.77818611</v>
+        <v>1326357.939372447</v>
       </c>
     </row>
     <row r="16">
@@ -48340,28 +48340,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>985.6354569878777</v>
+        <v>1057.471100358053</v>
       </c>
       <c r="AB16" t="n">
-        <v>1348.589915418289</v>
+        <v>1446.878611842279</v>
       </c>
       <c r="AC16" t="n">
-        <v>1219.882386648601</v>
+        <v>1308.790547834938</v>
       </c>
       <c r="AD16" t="n">
-        <v>985635.4569878776</v>
+        <v>1057471.100358053</v>
       </c>
       <c r="AE16" t="n">
-        <v>1348589.915418289</v>
+        <v>1446878.61184228</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.443451110367724e-06</v>
+        <v>2.708480446788036e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.69986979166667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1219882.386648601</v>
+        <v>1308790.547834938</v>
       </c>
     </row>
     <row r="17">
@@ -48446,28 +48446,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>967.708970401423</v>
+        <v>1039.544613771598</v>
       </c>
       <c r="AB17" t="n">
-        <v>1324.06210560993</v>
+        <v>1422.35080203392</v>
       </c>
       <c r="AC17" t="n">
-        <v>1197.695476583354</v>
+        <v>1286.603637769691</v>
       </c>
       <c r="AD17" t="n">
-        <v>967708.9704014231</v>
+        <v>1039544.613771598</v>
       </c>
       <c r="AE17" t="n">
-        <v>1324062.10560993</v>
+        <v>1422350.80203392</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.446108176378525e-06</v>
+        <v>2.713466144803293e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.68033854166667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1197695.476583354</v>
+        <v>1286603.637769691</v>
       </c>
     </row>
     <row r="18">
@@ -48552,28 +48552,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>955.5047487053168</v>
+        <v>1027.340392075492</v>
       </c>
       <c r="AB18" t="n">
-        <v>1307.363751073055</v>
+        <v>1405.652447497046</v>
       </c>
       <c r="AC18" t="n">
-        <v>1182.590789567191</v>
+        <v>1271.498950753528</v>
       </c>
       <c r="AD18" t="n">
-        <v>955504.7487053168</v>
+        <v>1027340.392075492</v>
       </c>
       <c r="AE18" t="n">
-        <v>1307363.751073055</v>
+        <v>1405652.447497046</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.449144823248012e-06</v>
+        <v>2.719164085392157e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.65755208333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>1182590.789567191</v>
+        <v>1271498.950753528</v>
       </c>
     </row>
     <row r="19">
@@ -48658,28 +48658,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>953.3435525469073</v>
+        <v>1025.179195917082</v>
       </c>
       <c r="AB19" t="n">
-        <v>1304.406707143874</v>
+        <v>1402.695403567865</v>
       </c>
       <c r="AC19" t="n">
-        <v>1179.915961760374</v>
+        <v>1268.82412294671</v>
       </c>
       <c r="AD19" t="n">
-        <v>953343.5525469073</v>
+        <v>1025179.195917082</v>
       </c>
       <c r="AE19" t="n">
-        <v>1304406.707143874</v>
+        <v>1402695.403567865</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.45094783232677e-06</v>
+        <v>2.722547237616795e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.64453125</v>
       </c>
       <c r="AH19" t="n">
-        <v>1179915.961760374</v>
+        <v>1268824.12294671</v>
       </c>
     </row>
     <row r="20">
@@ -48764,28 +48764,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>953.5892362485993</v>
+        <v>1025.424879618774</v>
       </c>
       <c r="AB20" t="n">
-        <v>1304.742862423329</v>
+        <v>1403.03155884732</v>
       </c>
       <c r="AC20" t="n">
-        <v>1180.220034851754</v>
+        <v>1269.128196038091</v>
       </c>
       <c r="AD20" t="n">
-        <v>953589.2362485992</v>
+        <v>1025424.879618774</v>
       </c>
       <c r="AE20" t="n">
-        <v>1304742.862423329</v>
+        <v>1403031.55884732</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.452181470117499e-06</v>
+        <v>2.724862025981021e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.63639322916667</v>
       </c>
       <c r="AH20" t="n">
-        <v>1180220.034851754</v>
+        <v>1269128.196038091</v>
       </c>
     </row>
     <row r="21">
@@ -48870,28 +48870,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>957.0689450243589</v>
+        <v>1028.904588394534</v>
       </c>
       <c r="AB21" t="n">
-        <v>1309.50395348424</v>
+        <v>1407.792649908231</v>
       </c>
       <c r="AC21" t="n">
-        <v>1184.526734064045</v>
+        <v>1273.434895250382</v>
       </c>
       <c r="AD21" t="n">
-        <v>957068.9450243589</v>
+        <v>1028904.588394534</v>
       </c>
       <c r="AE21" t="n">
-        <v>1309503.95348424</v>
+        <v>1407792.649908231</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.45227636533217e-06</v>
+        <v>2.725040086624423e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.634765625</v>
       </c>
       <c r="AH21" t="n">
-        <v>1184526.734064045</v>
+        <v>1273434.895250382</v>
       </c>
     </row>
     <row r="22">
@@ -48976,28 +48976,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>961.3367372106402</v>
+        <v>1033.172380580815</v>
       </c>
       <c r="AB22" t="n">
-        <v>1315.343335035213</v>
+        <v>1413.632031459204</v>
       </c>
       <c r="AC22" t="n">
-        <v>1189.808813235417</v>
+        <v>1278.716974421754</v>
       </c>
       <c r="AD22" t="n">
-        <v>961336.7372106402</v>
+        <v>1033172.380580815</v>
       </c>
       <c r="AE22" t="n">
-        <v>1315343.335035213</v>
+        <v>1413632.031459203</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.452181470117499e-06</v>
+        <v>2.724862025981021e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.63639322916667</v>
       </c>
       <c r="AH22" t="n">
-        <v>1189808.813235417</v>
+        <v>1278716.974421754</v>
       </c>
     </row>
   </sheetData>
@@ -49273,28 +49273,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>457.5890932226892</v>
+        <v>512.4649996560689</v>
       </c>
       <c r="AB2" t="n">
-        <v>626.0935847533216</v>
+        <v>701.1772208896011</v>
       </c>
       <c r="AC2" t="n">
-        <v>566.3400917523289</v>
+        <v>634.2578510363073</v>
       </c>
       <c r="AD2" t="n">
-        <v>457589.0932226892</v>
+        <v>512464.999656069</v>
       </c>
       <c r="AE2" t="n">
-        <v>626093.5847533216</v>
+        <v>701177.2208896012</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.645631949172464e-06</v>
+        <v>4.115600618642416e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.060546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>566340.0917523289</v>
+        <v>634257.8510363073</v>
       </c>
     </row>
   </sheetData>
@@ -49570,28 +49570,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1427.094315410901</v>
+        <v>1513.435299005052</v>
       </c>
       <c r="AB2" t="n">
-        <v>1952.613401302971</v>
+        <v>2070.748944151852</v>
       </c>
       <c r="AC2" t="n">
-        <v>1766.258718792736</v>
+        <v>1873.119571236395</v>
       </c>
       <c r="AD2" t="n">
-        <v>1427094.315410901</v>
+        <v>1513435.299005052</v>
       </c>
       <c r="AE2" t="n">
-        <v>1952613.401302971</v>
+        <v>2070748.944151853</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.120053352658749e-06</v>
+        <v>2.306507341341075e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.18717447916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1766258.718792736</v>
+        <v>1873119.571236395</v>
       </c>
     </row>
     <row r="3">
@@ -49676,28 +49676,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>980.7565633610185</v>
+        <v>1045.554993861056</v>
       </c>
       <c r="AB3" t="n">
-        <v>1341.914397916425</v>
+        <v>1430.574469231571</v>
       </c>
       <c r="AC3" t="n">
-        <v>1213.843971167967</v>
+        <v>1294.042449711988</v>
       </c>
       <c r="AD3" t="n">
-        <v>980756.5633610185</v>
+        <v>1045554.993861056</v>
       </c>
       <c r="AE3" t="n">
-        <v>1341914.397916425</v>
+        <v>1430574.469231571</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.39094803308158e-06</v>
+        <v>2.864356275628288e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.22981770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1213843.971167967</v>
+        <v>1294042.449711988</v>
       </c>
     </row>
     <row r="4">
@@ -49782,28 +49782,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>863.357991143871</v>
+        <v>928.0710807893363</v>
       </c>
       <c r="AB4" t="n">
-        <v>1181.284492149451</v>
+        <v>1269.8277963424</v>
       </c>
       <c r="AC4" t="n">
-        <v>1068.544358161904</v>
+        <v>1148.637213673986</v>
       </c>
       <c r="AD4" t="n">
-        <v>863357.991143871</v>
+        <v>928071.0807893362</v>
       </c>
       <c r="AE4" t="n">
-        <v>1181284.492149451</v>
+        <v>1269827.7963424</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.483963567640345e-06</v>
+        <v>3.055901627293265e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.46321614583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1068544.358161904</v>
+        <v>1148637.213673986</v>
       </c>
     </row>
     <row r="5">
@@ -49888,28 +49888,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>805.2524115875616</v>
+        <v>859.3222359678273</v>
       </c>
       <c r="AB5" t="n">
-        <v>1101.781874763257</v>
+        <v>1175.762593872635</v>
       </c>
       <c r="AC5" t="n">
-        <v>996.6293589964242</v>
+        <v>1063.549462106595</v>
       </c>
       <c r="AD5" t="n">
-        <v>805252.4115875616</v>
+        <v>859322.2359678273</v>
       </c>
       <c r="AE5" t="n">
-        <v>1101781.874763257</v>
+        <v>1175762.593872635</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.532143524305054e-06</v>
+        <v>3.155117815065798e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.10188802083333</v>
       </c>
       <c r="AH5" t="n">
-        <v>996629.3589964242</v>
+        <v>1063549.462106595</v>
       </c>
     </row>
     <row r="6">
@@ -49994,28 +49994,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>746.2712447765911</v>
+        <v>811.0695857680771</v>
       </c>
       <c r="AB6" t="n">
-        <v>1021.081240267052</v>
+        <v>1109.741189112651</v>
       </c>
       <c r="AC6" t="n">
-        <v>923.6306797924854</v>
+        <v>1003.829047555279</v>
       </c>
       <c r="AD6" t="n">
-        <v>746271.2447765911</v>
+        <v>811069.5857680771</v>
       </c>
       <c r="AE6" t="n">
-        <v>1021081.240267052</v>
+        <v>1109741.18911265</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.566736942213988e-06</v>
+        <v>3.226355468325469e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.85774739583333</v>
       </c>
       <c r="AH6" t="n">
-        <v>923630.6797924853</v>
+        <v>1003829.047555279</v>
       </c>
     </row>
     <row r="7">
@@ -50100,28 +50100,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>718.1829645986215</v>
+        <v>782.9813055901075</v>
       </c>
       <c r="AB7" t="n">
-        <v>982.6496161600887</v>
+        <v>1071.309565005687</v>
       </c>
       <c r="AC7" t="n">
-        <v>888.8669159511674</v>
+        <v>969.0652837139617</v>
       </c>
       <c r="AD7" t="n">
-        <v>718182.9645986216</v>
+        <v>782981.3055901075</v>
       </c>
       <c r="AE7" t="n">
-        <v>982649.6161600887</v>
+        <v>1071309.565005687</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.580009945460014e-06</v>
+        <v>3.253688344349573e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.7666015625</v>
       </c>
       <c r="AH7" t="n">
-        <v>888866.9159511673</v>
+        <v>969065.2837139617</v>
       </c>
     </row>
     <row r="8">
@@ -50206,28 +50206,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>714.6274519174899</v>
+        <v>779.4257929089758</v>
       </c>
       <c r="AB8" t="n">
-        <v>977.7848068516155</v>
+        <v>1066.444755697214</v>
       </c>
       <c r="AC8" t="n">
-        <v>884.466397215292</v>
+        <v>964.6647649780864</v>
       </c>
       <c r="AD8" t="n">
-        <v>714627.4519174899</v>
+        <v>779425.7929089759</v>
       </c>
       <c r="AE8" t="n">
-        <v>977784.8068516154</v>
+        <v>1066444.755697214</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.582622741374586e-06</v>
+        <v>3.259068831755892e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.74869791666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>884466.397215292</v>
+        <v>964664.7649780863</v>
       </c>
     </row>
     <row r="9">
@@ -50312,28 +50312,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>719.1016237565333</v>
+        <v>783.8999647480191</v>
       </c>
       <c r="AB9" t="n">
-        <v>983.9065661483249</v>
+        <v>1072.566514993923</v>
       </c>
       <c r="AC9" t="n">
-        <v>890.0039043966669</v>
+        <v>970.2022721594611</v>
       </c>
       <c r="AD9" t="n">
-        <v>719101.6237565333</v>
+        <v>783899.9647480191</v>
       </c>
       <c r="AE9" t="n">
-        <v>983906.566148325</v>
+        <v>1072566.514993923</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.582622741374586e-06</v>
+        <v>3.259068831755892e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.74869791666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>890003.9043966669</v>
+        <v>970202.2721594612</v>
       </c>
     </row>
   </sheetData>
@@ -50609,28 +50609,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1945.204049530079</v>
+        <v>2035.294597668818</v>
       </c>
       <c r="AB2" t="n">
-        <v>2661.513996913105</v>
+        <v>2784.779859391006</v>
       </c>
       <c r="AC2" t="n">
-        <v>2407.502836506074</v>
+        <v>2519.004378073807</v>
       </c>
       <c r="AD2" t="n">
-        <v>1945204.049530079</v>
+        <v>2035294.597668818</v>
       </c>
       <c r="AE2" t="n">
-        <v>2661513.996913105</v>
+        <v>2784779.859391006</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.607436023602839e-07</v>
+        <v>1.903409960493193e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.04752604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2407502.836506074</v>
+        <v>2519004.378073807</v>
       </c>
     </row>
     <row r="3">
@@ -50715,28 +50715,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1214.437050553602</v>
+        <v>1293.180861000445</v>
       </c>
       <c r="AB3" t="n">
-        <v>1661.646349748822</v>
+        <v>1769.387105133931</v>
       </c>
       <c r="AC3" t="n">
-        <v>1503.061154264092</v>
+        <v>1600.519283170348</v>
       </c>
       <c r="AD3" t="n">
-        <v>1214437.050553602</v>
+        <v>1293180.861000445</v>
       </c>
       <c r="AE3" t="n">
-        <v>1661646.349748822</v>
+        <v>1769387.105133931</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.267239728542671e-06</v>
+        <v>2.510635216008722e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.92317708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1503061.154264092</v>
+        <v>1600519.283170348</v>
       </c>
     </row>
     <row r="4">
@@ -50821,28 +50821,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1049.859834236064</v>
+        <v>1128.518303828336</v>
       </c>
       <c r="AB4" t="n">
-        <v>1436.464541748812</v>
+        <v>1544.088530011724</v>
       </c>
       <c r="AC4" t="n">
-        <v>1299.370381974952</v>
+        <v>1396.722887849268</v>
       </c>
       <c r="AD4" t="n">
-        <v>1049859.834236064</v>
+        <v>1128518.303828336</v>
       </c>
       <c r="AE4" t="n">
-        <v>1436464.541748812</v>
+        <v>1544088.530011724</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.37691825038732e-06</v>
+        <v>2.727928560891167e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.89453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1299370.381974952</v>
+        <v>1396722.887849268</v>
       </c>
     </row>
     <row r="5">
@@ -50927,28 +50927,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>977.1463111739238</v>
+        <v>1044.543562945973</v>
       </c>
       <c r="AB5" t="n">
-        <v>1336.974691600956</v>
+        <v>1429.190584832373</v>
       </c>
       <c r="AC5" t="n">
-        <v>1209.375703490325</v>
+        <v>1292.790641297555</v>
       </c>
       <c r="AD5" t="n">
-        <v>977146.3111739238</v>
+        <v>1044543.562945973</v>
       </c>
       <c r="AE5" t="n">
-        <v>1336974.691600956</v>
+        <v>1429190.584832373</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.432964981274906e-06</v>
+        <v>2.838967453643021e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.42903645833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1209375.703490325</v>
+        <v>1292790.641297555</v>
       </c>
     </row>
     <row r="6">
@@ -51033,28 +51033,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>929.5691671209024</v>
+        <v>985.8757932733213</v>
       </c>
       <c r="AB6" t="n">
-        <v>1271.877544152153</v>
+        <v>1348.918754126922</v>
       </c>
       <c r="AC6" t="n">
-        <v>1150.491336429616</v>
+        <v>1220.17984145241</v>
       </c>
       <c r="AD6" t="n">
-        <v>929569.1671209024</v>
+        <v>985875.7932733212</v>
       </c>
       <c r="AE6" t="n">
-        <v>1271877.544152153</v>
+        <v>1348918.754126922</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.467478497781984e-06</v>
+        <v>2.907345084188598e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.16048177083333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1150491.336429616</v>
+        <v>1220179.84145241</v>
       </c>
     </row>
     <row r="7">
@@ -51139,28 +51139,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>870.6267307715904</v>
+        <v>938.10923388966</v>
       </c>
       <c r="AB7" t="n">
-        <v>1191.229902382257</v>
+        <v>1283.562440266323</v>
       </c>
       <c r="AC7" t="n">
-        <v>1077.540592400562</v>
+        <v>1161.061042458504</v>
       </c>
       <c r="AD7" t="n">
-        <v>870626.7307715904</v>
+        <v>938109.23388966</v>
       </c>
       <c r="AE7" t="n">
-        <v>1191229.902382257</v>
+        <v>1283562.440266323</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.502696371768798e-06</v>
+        <v>2.977118176582043e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.8984375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1077540.592400562</v>
+        <v>1161061.042458504</v>
       </c>
     </row>
     <row r="8">
@@ -51245,28 +51245,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>853.4965860925588</v>
+        <v>920.9790892106284</v>
       </c>
       <c r="AB8" t="n">
-        <v>1167.791682703759</v>
+        <v>1260.124220587825</v>
       </c>
       <c r="AC8" t="n">
-        <v>1056.339283512432</v>
+        <v>1139.859733570374</v>
       </c>
       <c r="AD8" t="n">
-        <v>853496.5860925588</v>
+        <v>920979.0892106284</v>
       </c>
       <c r="AE8" t="n">
-        <v>1167791.682703759</v>
+        <v>1260124.220587825</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.507727496624057e-06</v>
+        <v>2.987085761209678e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.86263020833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1056339.283512432</v>
+        <v>1139859.733570374</v>
       </c>
     </row>
     <row r="9">
@@ -51351,28 +51351,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>825.3455923521265</v>
+        <v>892.8280954701963</v>
       </c>
       <c r="AB9" t="n">
-        <v>1129.274251133908</v>
+        <v>1221.606789017973</v>
       </c>
       <c r="AC9" t="n">
-        <v>1021.497901552053</v>
+        <v>1105.018351609994</v>
       </c>
       <c r="AD9" t="n">
-        <v>825345.5923521265</v>
+        <v>892828.0954701963</v>
       </c>
       <c r="AE9" t="n">
-        <v>1129274.251133908</v>
+        <v>1221606.789017973</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.521110288739046e-06</v>
+        <v>3.013599536319188e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.7666015625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1021497.901552053</v>
+        <v>1105018.351609994</v>
       </c>
     </row>
     <row r="10">
@@ -51457,28 +51457,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>801.2529397713981</v>
+        <v>868.7354428894678</v>
       </c>
       <c r="AB10" t="n">
-        <v>1096.309620980138</v>
+        <v>1188.642158864204</v>
       </c>
       <c r="AC10" t="n">
-        <v>991.67936943401</v>
+        <v>1075.199819491952</v>
       </c>
       <c r="AD10" t="n">
-        <v>801252.9397713981</v>
+        <v>868735.4428894678</v>
       </c>
       <c r="AE10" t="n">
-        <v>1096309.620980138</v>
+        <v>1188642.158864204</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.529461955998776e-06</v>
+        <v>3.030145726801062e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.7080078125</v>
       </c>
       <c r="AH10" t="n">
-        <v>991679.36943401</v>
+        <v>1075199.819491951</v>
       </c>
     </row>
     <row r="11">
@@ -51563,28 +51563,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>794.9264353146491</v>
+        <v>862.408938432719</v>
       </c>
       <c r="AB11" t="n">
-        <v>1087.653418476736</v>
+        <v>1179.985956360802</v>
       </c>
       <c r="AC11" t="n">
-        <v>983.8493027484761</v>
+        <v>1067.369752806418</v>
       </c>
       <c r="AD11" t="n">
-        <v>794926.4353146491</v>
+        <v>862408.938432719</v>
       </c>
       <c r="AE11" t="n">
-        <v>1087653.418476736</v>
+        <v>1179985.956360802</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.533788723374299e-06</v>
+        <v>3.038717849580828e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.67708333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>983849.3027484762</v>
+        <v>1067369.752806418</v>
       </c>
     </row>
     <row r="12">
@@ -51669,28 +51669,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>798.8129044731072</v>
+        <v>866.295407591177</v>
       </c>
       <c r="AB12" t="n">
-        <v>1092.971057038257</v>
+        <v>1185.303594922323</v>
       </c>
       <c r="AC12" t="n">
-        <v>988.6594333490376</v>
+        <v>1072.179883406979</v>
       </c>
       <c r="AD12" t="n">
-        <v>798812.9044731072</v>
+        <v>866295.4075911769</v>
       </c>
       <c r="AE12" t="n">
-        <v>1092971.057038257</v>
+        <v>1185303.594922323</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.533285610888774e-06</v>
+        <v>3.037721091118065e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.68196614583333</v>
       </c>
       <c r="AH12" t="n">
-        <v>988659.4333490377</v>
+        <v>1072179.883406979</v>
       </c>
     </row>
   </sheetData>
